--- a/server/data/coa/modifiedCoa.xlsx
+++ b/server/data/coa/modifiedCoa.xlsx
@@ -32,8 +32,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ _€"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -397,13 +398,2119 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A56"/>
+  <dimension ref="A1:E148"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Account No.</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Account</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Type</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Detail type</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Description</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>100</v>
+      </c>
+      <c r="B2" t="str">
+        <v>CAJA</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Cash and cash equivalents</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Bank</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>100.01</v>
+      </c>
+      <c r="B3" t="str">
+        <v>CAJA:Caja General</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Cash and cash equivalents</v>
+      </c>
+      <c r="D3" t="str">
+        <v>Bank</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>100.02</v>
+      </c>
+      <c r="B4" t="str">
+        <v>CAJA:Caja Chica</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Cash and cash equivalents</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Bank</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>101</v>
+      </c>
+      <c r="B5" t="str">
+        <v>BANCOS</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Cash and cash equivalents</v>
+      </c>
+      <c r="D5" t="str">
+        <v>Bank</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>101.01</v>
+      </c>
+      <c r="B6" t="str">
+        <v>BANCOS:(CERRADO)Cta. Cheq. 11-302-001083-2</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Cash and cash equivalents</v>
+      </c>
+      <c r="D6" t="str">
+        <v>Bank</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>101.02</v>
+      </c>
+      <c r="B7" t="str">
+        <v>BANCOS:(CERRADO)Cta. Cheq. 11-302-001077-8</v>
+      </c>
+      <c r="C7" t="str">
+        <v>Cash and cash equivalents</v>
+      </c>
+      <c r="D7" t="str">
+        <v>Bank</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>101.03</v>
+      </c>
+      <c r="B8" t="str">
+        <v>BANCOS:(CERRADO)Cta. Cheq. 11-302-001084-0</v>
+      </c>
+      <c r="C8" t="str">
+        <v>Cash and cash equivalents</v>
+      </c>
+      <c r="D8" t="str">
+        <v>Bank</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>101.04</v>
+      </c>
+      <c r="B9" t="str">
+        <v>BANCOS:(CERRADO)Cta. Ahorro 21-302-021225-3</v>
+      </c>
+      <c r="C9" t="str">
+        <v>Cash and cash equivalents</v>
+      </c>
+      <c r="D9" t="str">
+        <v>Bank</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>101.05</v>
+      </c>
+      <c r="B10" t="str">
+        <v>BANCOS:(CERRADO)Cta. Ahorro 21-302-021274-1</v>
+      </c>
+      <c r="C10" t="str">
+        <v>Cash and cash equivalents</v>
+      </c>
+      <c r="D10" t="str">
+        <v>Bank</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>101.06</v>
+      </c>
+      <c r="B11" t="str">
+        <v>BANCOS:(CERRADO)Cta. Ahorro USD 22-302-000859-9</v>
+      </c>
+      <c r="C11" t="str">
+        <v>Cash and cash equivalents</v>
+      </c>
+      <c r="D11" t="str">
+        <v>Bank</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>101.07</v>
+      </c>
+      <c r="B12" t="str">
+        <v>BANCOS:Cta.Gastos Operat-21-302-0332470</v>
+      </c>
+      <c r="C12" t="str">
+        <v>Cash and cash equivalents</v>
+      </c>
+      <c r="D12" t="str">
+        <v>Bank</v>
+      </c>
+      <c r="E12" t="str">
+        <v>Gastos Operativos</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>101.08</v>
+      </c>
+      <c r="B13" t="str">
+        <v>BANCOS:Cta.Otros Ingresos-21-302-0332488</v>
+      </c>
+      <c r="C13" t="str">
+        <v>Cash and cash equivalents</v>
+      </c>
+      <c r="D13" t="str">
+        <v>Bank</v>
+      </c>
+      <c r="E13" t="str">
+        <v>Otros Ingresos</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>101.09</v>
+      </c>
+      <c r="B14" t="str">
+        <v>BANCOS:Cta.BeneficiosLab-21-302-0332496</v>
+      </c>
+      <c r="C14" t="str">
+        <v>Cash and cash equivalents</v>
+      </c>
+      <c r="D14" t="str">
+        <v>Bank</v>
+      </c>
+      <c r="E14" t="str">
+        <v>Beneficios Laborales</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>101.1</v>
+      </c>
+      <c r="B15" t="str">
+        <v>BANCOS:Cta.Transf-USD-22-302-0013169</v>
+      </c>
+      <c r="C15" t="str">
+        <v>Cash and cash equivalents</v>
+      </c>
+      <c r="D15" t="str">
+        <v>Bank</v>
+      </c>
+      <c r="E15" t="str">
+        <v>Transferencias de EOS en USD</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>101.11</v>
+      </c>
+      <c r="B16" t="str">
+        <v>BANCOS:Cta. Ahorro-USFS 21-302-039430-0</v>
+      </c>
+      <c r="C16" t="str">
+        <v>Cash and cash equivalents</v>
+      </c>
+      <c r="D16" t="str">
+        <v>Bank</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>103.01</v>
+      </c>
+      <c r="B17" t="str">
+        <v>CUENTAS POR COBRAR</v>
+      </c>
+      <c r="C17" t="str">
+        <v>Accounts receivable (A/R)</v>
+      </c>
+      <c r="D17" t="str">
+        <v>Accounts receivable (A/R)</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>103.02</v>
+      </c>
+      <c r="B18" t="str">
+        <v>CUENTAS POR COBRAR:Cuentas Incobrales</v>
+      </c>
+      <c r="C18" t="str">
+        <v>Accounts receivable (A/R)</v>
+      </c>
+      <c r="D18" t="str">
+        <v>Accounts receivable (A/R)</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>102</v>
+      </c>
+      <c r="B19" t="str">
+        <v>ANTICIPOS</v>
+      </c>
+      <c r="C19" t="str">
+        <v>Current assets</v>
+      </c>
+      <c r="D19" t="str">
+        <v>Other current assets</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>102.01</v>
+      </c>
+      <c r="B20" t="str">
+        <v>ANTICIPOS:Anticipos</v>
+      </c>
+      <c r="C20" t="str">
+        <v>Current assets</v>
+      </c>
+      <c r="D20" t="str">
+        <v>Other current assets</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>102.02</v>
+      </c>
+      <c r="B21" t="str">
+        <v>ANTICIPOS:Impuestos sobre la Renta (Pago a la cuenta)</v>
+      </c>
+      <c r="C21" t="str">
+        <v>Current assets</v>
+      </c>
+      <c r="D21" t="str">
+        <v>Other current assets</v>
+      </c>
+      <c r="E21" t="str">
+        <v>Pago a ls cuenta</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>102.03</v>
+      </c>
+      <c r="B22" t="str">
+        <v>ANTICIPOS:Impuestos sobre Ventas (Pagado)</v>
+      </c>
+      <c r="C22" t="str">
+        <v>Current assets</v>
+      </c>
+      <c r="D22" t="str">
+        <v>Other current assets</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>104</v>
+      </c>
+      <c r="B23" t="str">
+        <v>INVENTARIO</v>
+      </c>
+      <c r="C23" t="str">
+        <v>Current assets</v>
+      </c>
+      <c r="D23" t="str">
+        <v>Other current assets</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>104.01</v>
+      </c>
+      <c r="B24" t="str">
+        <v>INVENTARIO:Inventario - Analsis de Agua</v>
+      </c>
+      <c r="C24" t="str">
+        <v>Current assets</v>
+      </c>
+      <c r="D24" t="str">
+        <v>Other current assets</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>104.02</v>
+      </c>
+      <c r="B25" t="str">
+        <v>INVENTARIO:Inventario  - Cloro Tabletas</v>
+      </c>
+      <c r="C25" t="str">
+        <v>Current assets</v>
+      </c>
+      <c r="D25" t="str">
+        <v>Other current assets</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>104.03</v>
+      </c>
+      <c r="B26" t="str">
+        <v>INVENTARIO:Inventario - Cloro Granulado (en libras)</v>
+      </c>
+      <c r="C26" t="str">
+        <v>Current assets</v>
+      </c>
+      <c r="D26" t="str">
+        <v>Other current assets</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>104.04</v>
+      </c>
+      <c r="B27" t="str">
+        <v>INVENTARIO:Inventario - Cloradores</v>
+      </c>
+      <c r="C27" t="str">
+        <v>Current assets</v>
+      </c>
+      <c r="D27" t="str">
+        <v>Other current assets</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>104.05</v>
+      </c>
+      <c r="B28" t="str">
+        <v>INVENTARIO:Inventario - Fitros</v>
+      </c>
+      <c r="C28" t="str">
+        <v>Current assets</v>
+      </c>
+      <c r="D28" t="str">
+        <v>Other current assets</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>104.06</v>
+      </c>
+      <c r="B29" t="str">
+        <v>INVENTARIO:Inventario - Reactivos y Kit Cloro</v>
+      </c>
+      <c r="C29" t="str">
+        <v>Current assets</v>
+      </c>
+      <c r="D29" t="str">
+        <v>Other current assets</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>104.07</v>
+      </c>
+      <c r="B30" t="str">
+        <v>INVENTARIO:Inventario - Accesorios y Otras</v>
+      </c>
+      <c r="C30" t="str">
+        <v>Current assets</v>
+      </c>
+      <c r="D30" t="str">
+        <v>Other current assets</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>105</v>
+      </c>
+      <c r="B31" t="str">
+        <v>OTROS ACTIVOS CIRCULANTES</v>
+      </c>
+      <c r="C31" t="str">
+        <v>Current assets</v>
+      </c>
+      <c r="D31" t="str">
+        <v>Other current assets</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>105.01</v>
+      </c>
+      <c r="B32" t="str">
+        <v>Prestamos a Empleados</v>
+      </c>
+      <c r="C32" t="str">
+        <v>Current assets</v>
+      </c>
+      <c r="D32" t="str">
+        <v>Other current assets</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>105.02</v>
+      </c>
+      <c r="B33" t="str">
+        <v>Deodores Varios</v>
+      </c>
+      <c r="C33" t="str">
+        <v>Current assets</v>
+      </c>
+      <c r="D33" t="str">
+        <v>Other current assets</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>105.03</v>
+      </c>
+      <c r="B34" t="str">
+        <v>OTROS ACTIVOS CIRCULANTES:Prestamo EOS</v>
+      </c>
+      <c r="C34" t="str">
+        <v>Current assets</v>
+      </c>
+      <c r="D34" t="str">
+        <v>Other current assets</v>
+      </c>
+      <c r="E34" t="str">
+        <v>Prestamo Motocicleta</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>3004</v>
+      </c>
+      <c r="B35" t="str">
+        <v>Uncategorized Asset (Activo sin categorizado)</v>
+      </c>
+      <c r="C35" t="str">
+        <v>Current assets</v>
+      </c>
+      <c r="D35" t="str">
+        <v>Other current assets</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>3011</v>
+      </c>
+      <c r="B36" t="str">
+        <v>Undeposited Funds</v>
+      </c>
+      <c r="C36" t="str">
+        <v>Current assets</v>
+      </c>
+      <c r="D36" t="str">
+        <v>Other current assets</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>8965</v>
+      </c>
+      <c r="B37" t="str">
+        <v>Inventory Asset</v>
+      </c>
+      <c r="C37" t="str">
+        <v>Current assets</v>
+      </c>
+      <c r="D37" t="str">
+        <v>Other current assets</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>120</v>
+      </c>
+      <c r="B38" t="str">
+        <v>MOBILIARIO Y EQUIPO</v>
+      </c>
+      <c r="C38" t="str">
+        <v>Fixed Assets</v>
+      </c>
+      <c r="D38" t="str">
+        <v>Other fixed assets</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>120.01</v>
+      </c>
+      <c r="B39" t="str">
+        <v>Vehicilos y Motos</v>
+      </c>
+      <c r="C39" t="str">
+        <v>Fixed Assets</v>
+      </c>
+      <c r="D39" t="str">
+        <v>Other fixed assets</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>120.02</v>
+      </c>
+      <c r="B40" t="str">
+        <v>Mobiliario y Equipo de Oficina</v>
+      </c>
+      <c r="C40" t="str">
+        <v>Fixed Assets</v>
+      </c>
+      <c r="D40" t="str">
+        <v>Other fixed assets</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>120.03</v>
+      </c>
+      <c r="B41" t="str">
+        <v>Equipo de Laboratorio</v>
+      </c>
+      <c r="C41" t="str">
+        <v>Fixed Assets</v>
+      </c>
+      <c r="D41" t="str">
+        <v>Other fixed assets</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>121</v>
+      </c>
+      <c r="B42" t="str">
+        <v>DEPRECIACION ACUMULADA</v>
+      </c>
+      <c r="C42" t="str">
+        <v>Fixed Assets</v>
+      </c>
+      <c r="D42" t="str">
+        <v>Accumulated Depreciation</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>121.01</v>
+      </c>
+      <c r="B43" t="str">
+        <v>Depreciación Vehicilos y Motos</v>
+      </c>
+      <c r="C43" t="str">
+        <v>Fixed Assets</v>
+      </c>
+      <c r="D43" t="str">
+        <v>Accumulated Depreciation</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>121.02</v>
+      </c>
+      <c r="B44" t="str">
+        <v>Depreciación Mobiliario y Equipo de Oficina</v>
+      </c>
+      <c r="C44" t="str">
+        <v>Fixed Assets</v>
+      </c>
+      <c r="D44" t="str">
+        <v>Accumulated Depreciation</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>121.03</v>
+      </c>
+      <c r="B45" t="str">
+        <v>Depreciación Equipo de Laboratorio</v>
+      </c>
+      <c r="C45" t="str">
+        <v>Fixed Assets</v>
+      </c>
+      <c r="D45" t="str">
+        <v>Accumulated Depreciation</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>3012</v>
+      </c>
+      <c r="B46" t="str">
+        <v>Cuentas por Pagar</v>
+      </c>
+      <c r="C46" t="str">
+        <v>Accounts Payable (A/P)</v>
+      </c>
+      <c r="D46" t="str">
+        <v>Accounts Payable (A/P)</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>200</v>
+      </c>
+      <c r="B47" t="str">
+        <v>ACREEDORES DIVERSOS</v>
+      </c>
+      <c r="C47" t="str">
+        <v>Current liabilities</v>
+      </c>
+      <c r="D47" t="str">
+        <v>Other current liabilities</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>201</v>
+      </c>
+      <c r="B48" t="str">
+        <v>RETENCIONES POR PAGAR</v>
+      </c>
+      <c r="C48" t="str">
+        <v>Current liabilities</v>
+      </c>
+      <c r="D48" t="str">
+        <v>Other current liabilities</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>201.01</v>
+      </c>
+      <c r="B49" t="str">
+        <v>RETENCIONES POR PAGAR:Benef. y Prest. Lab. de Empleados</v>
+      </c>
+      <c r="C49" t="str">
+        <v>Current liabilities</v>
+      </c>
+      <c r="D49" t="str">
+        <v>Other current liabilities</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>201.02</v>
+      </c>
+      <c r="B50" t="str">
+        <v>RETENCIONES POR PAGAR:Fondos por Ejecutar</v>
+      </c>
+      <c r="C50" t="str">
+        <v>Current liabilities</v>
+      </c>
+      <c r="D50" t="str">
+        <v>Other current liabilities</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>201.03</v>
+      </c>
+      <c r="B51" t="str">
+        <v>RETENCIONES POR PAGAR:Transferencias no Ejecutadas</v>
+      </c>
+      <c r="C51" t="str">
+        <v>Current liabilities</v>
+      </c>
+      <c r="D51" t="str">
+        <v>Other current liabilities</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>201.04</v>
+      </c>
+      <c r="B52" t="str">
+        <v>RETENCIONES POR PAGAR:Seguros por Pagar</v>
+      </c>
+      <c r="C52" t="str">
+        <v>Current liabilities</v>
+      </c>
+      <c r="D52" t="str">
+        <v>Other current liabilities</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>300</v>
+      </c>
+      <c r="B53" t="str">
+        <v>PATRIMONIO</v>
+      </c>
+      <c r="C53" t="str">
+        <v>Owner's equity</v>
+      </c>
+      <c r="D53" t="str">
+        <v>Owner's Equity</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>300.01</v>
+      </c>
+      <c r="B54" t="str">
+        <v>Donaciones de Equipos</v>
+      </c>
+      <c r="C54" t="str">
+        <v>Owner's equity</v>
+      </c>
+      <c r="D54" t="str">
+        <v>Owner's Equity</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>300.02</v>
+      </c>
+      <c r="B55" t="str">
+        <v>Periodos Anteriores</v>
+      </c>
+      <c r="C55" t="str">
+        <v>Owner's equity</v>
+      </c>
+      <c r="D55" t="str">
+        <v>Owner's Equity</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>300.03</v>
+      </c>
+      <c r="B56" t="str">
+        <v>Presente Periodo</v>
+      </c>
+      <c r="C56" t="str">
+        <v>Owner's equity</v>
+      </c>
+      <c r="D56" t="str">
+        <v>Owner's Equity</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>300.04</v>
+      </c>
+      <c r="B57" t="str">
+        <v>Donaciones Recibidas</v>
+      </c>
+      <c r="C57" t="str">
+        <v>Owner's equity</v>
+      </c>
+      <c r="D57" t="str">
+        <v>Owner's Equity</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>3005</v>
+      </c>
+      <c r="B58" t="str">
+        <v>Opening Balance Equity (Equilibrio de apertura)</v>
+      </c>
+      <c r="C58" t="str">
+        <v>Owner's equity</v>
+      </c>
+      <c r="D58" t="str">
+        <v>Owner's Equity</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>3001</v>
+      </c>
+      <c r="B59" t="str">
+        <v>Services (Servicos)</v>
+      </c>
+      <c r="C59" t="str">
+        <v>Income</v>
+      </c>
+      <c r="D59" t="str">
+        <v>Revenue - General</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>3002</v>
+      </c>
+      <c r="B60" t="str">
+        <v>Uncategorized Income (Ingresos no categorizados)</v>
+      </c>
+      <c r="C60" t="str">
+        <v>Income</v>
+      </c>
+      <c r="D60" t="str">
+        <v>Revenue - General</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>3006</v>
+      </c>
+      <c r="B61" t="str">
+        <v>Billable Expense Income</v>
+      </c>
+      <c r="C61" t="str">
+        <v>Income</v>
+      </c>
+      <c r="D61" t="str">
+        <v>Revenue - General</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>3007</v>
+      </c>
+      <c r="B62" t="str">
+        <v>Sales of Product Income</v>
+      </c>
+      <c r="C62" t="str">
+        <v>Income</v>
+      </c>
+      <c r="D62" t="str">
+        <v>Revenue - General</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>3008</v>
+      </c>
+      <c r="B63" t="str">
+        <v>Unapplied Cash Payment Income</v>
+      </c>
+      <c r="C63" t="str">
+        <v>Income</v>
+      </c>
+      <c r="D63" t="str">
+        <v>Revenue - General</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>3014</v>
+      </c>
+      <c r="B64" t="str">
+        <v>Discounts given</v>
+      </c>
+      <c r="C64" t="str">
+        <v>Income</v>
+      </c>
+      <c r="D64" t="str">
+        <v>Revenue - General</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>3015</v>
+      </c>
+      <c r="B65" t="str">
+        <v>Shipping Income</v>
+      </c>
+      <c r="C65" t="str">
+        <v>Income</v>
+      </c>
+      <c r="D65" t="str">
+        <v>Revenue - General</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>400</v>
+      </c>
+      <c r="B66" t="str">
+        <v>INGRESOS DEL PROGRAMA</v>
+      </c>
+      <c r="C66" t="str">
+        <v>Income</v>
+      </c>
+      <c r="D66" t="str">
+        <v>Revenue - General</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>400.01</v>
+      </c>
+      <c r="B67" t="str">
+        <v>Fondos p/Ejecucion Proyectos</v>
+      </c>
+      <c r="C67" t="str">
+        <v>Income</v>
+      </c>
+      <c r="D67" t="str">
+        <v>Revenue - General</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>400.02</v>
+      </c>
+      <c r="B68" t="str">
+        <v>Fondos p/Asistencia Tecnica y Capac.</v>
+      </c>
+      <c r="C68" t="str">
+        <v>Income</v>
+      </c>
+      <c r="D68" t="str">
+        <v>Revenue - General</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>400.03</v>
+      </c>
+      <c r="B69" t="str">
+        <v>Fondos p/Presupuesto Aprobado</v>
+      </c>
+      <c r="C69" t="str">
+        <v>Income</v>
+      </c>
+      <c r="D69" t="str">
+        <v>Revenue - General</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>400.04</v>
+      </c>
+      <c r="B70" t="str">
+        <v>Servicios - Asistencia Tecnica</v>
+      </c>
+      <c r="C70" t="str">
+        <v>Income</v>
+      </c>
+      <c r="D70" t="str">
+        <v>Revenue - General</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>400.05</v>
+      </c>
+      <c r="B71" t="str">
+        <v>Venta - Analsis de Agua</v>
+      </c>
+      <c r="C71" t="str">
+        <v>Income</v>
+      </c>
+      <c r="D71" t="str">
+        <v>Revenue - General</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>400.06</v>
+      </c>
+      <c r="B72" t="str">
+        <v>Venta - Cloro Tabletas</v>
+      </c>
+      <c r="C72" t="str">
+        <v>Income</v>
+      </c>
+      <c r="D72" t="str">
+        <v>Revenue - General</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>400.07</v>
+      </c>
+      <c r="B73" t="str">
+        <v>Venta - Cloro Granulado (en libras)</v>
+      </c>
+      <c r="C73" t="str">
+        <v>Income</v>
+      </c>
+      <c r="D73" t="str">
+        <v>Revenue - General</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>400.08</v>
+      </c>
+      <c r="B74" t="str">
+        <v>Venta - Cloradores</v>
+      </c>
+      <c r="C74" t="str">
+        <v>Income</v>
+      </c>
+      <c r="D74" t="str">
+        <v>Revenue - General</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>400.09</v>
+      </c>
+      <c r="B75" t="str">
+        <v>Venta - Fitros</v>
+      </c>
+      <c r="C75" t="str">
+        <v>Income</v>
+      </c>
+      <c r="D75" t="str">
+        <v>Revenue - General</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>400.1</v>
+      </c>
+      <c r="B76" t="str">
+        <v>Venta - Reactivos</v>
+      </c>
+      <c r="C76" t="str">
+        <v>Income</v>
+      </c>
+      <c r="D76" t="str">
+        <v>Revenue - General</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>400.11</v>
+      </c>
+      <c r="B77" t="str">
+        <v>Venta - Kit Cloro</v>
+      </c>
+      <c r="C77" t="str">
+        <v>Income</v>
+      </c>
+      <c r="D77" t="str">
+        <v>Revenue - General</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>400.12</v>
+      </c>
+      <c r="B78" t="str">
+        <v>Venta - Accesorios y Otras Ingresos</v>
+      </c>
+      <c r="C78" t="str">
+        <v>Income</v>
+      </c>
+      <c r="D78" t="str">
+        <v>Revenue - General</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>400.13</v>
+      </c>
+      <c r="B79" t="str">
+        <v>Fondos p/Interes de Prestamos</v>
+      </c>
+      <c r="C79" t="str">
+        <v>Income</v>
+      </c>
+      <c r="D79" t="str">
+        <v>Revenue - General</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>400.14</v>
+      </c>
+      <c r="B80" t="str">
+        <v>Fondos p/Interes de cuentas Bancarias</v>
+      </c>
+      <c r="C80" t="str">
+        <v>Income</v>
+      </c>
+      <c r="D80" t="str">
+        <v>Revenue - General</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>400.15</v>
+      </c>
+      <c r="B81" t="str">
+        <v>Fondos Misceláneos</v>
+      </c>
+      <c r="C81" t="str">
+        <v>Income</v>
+      </c>
+      <c r="D81" t="str">
+        <v>Revenue - General</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>400.16</v>
+      </c>
+      <c r="B82" t="str">
+        <v>INGRESOS DEL PROGRAMA:Ajuste por mantenimiento y Valor</v>
+      </c>
+      <c r="C82" t="str">
+        <v>Income</v>
+      </c>
+      <c r="D82" t="str">
+        <v>Revenue - General</v>
+      </c>
+      <c r="E82" t="str">
+        <v>Ajuste mantenimiento cuenta de Dólar</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>500</v>
+      </c>
+      <c r="B83" t="str">
+        <v>Cost of Goods Sold</v>
+      </c>
+      <c r="C83" t="str">
+        <v>Cost of sales</v>
+      </c>
+      <c r="D83" t="str">
+        <v>Supplies and materials - COS</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>500.01</v>
+      </c>
+      <c r="B84" t="str">
+        <v>Insumos Analsis de Agua</v>
+      </c>
+      <c r="C84" t="str">
+        <v>Cost of sales</v>
+      </c>
+      <c r="D84" t="str">
+        <v>Supplies and materials - COS</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>500.02</v>
+      </c>
+      <c r="B85" t="str">
+        <v>Insumos Cloro Tabletas</v>
+      </c>
+      <c r="C85" t="str">
+        <v>Cost of sales</v>
+      </c>
+      <c r="D85" t="str">
+        <v>Supplies and materials - COS</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>500.03</v>
+      </c>
+      <c r="B86" t="str">
+        <v>Insumos Cloro Granulado (en libras)</v>
+      </c>
+      <c r="C86" t="str">
+        <v>Cost of sales</v>
+      </c>
+      <c r="D86" t="str">
+        <v>Supplies and materials - COS</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>500.04</v>
+      </c>
+      <c r="B87" t="str">
+        <v>Insumos Cloradores</v>
+      </c>
+      <c r="C87" t="str">
+        <v>Cost of sales</v>
+      </c>
+      <c r="D87" t="str">
+        <v>Supplies and materials - COS</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>500.05</v>
+      </c>
+      <c r="B88" t="str">
+        <v>Insumos Fitros</v>
+      </c>
+      <c r="C88" t="str">
+        <v>Cost of sales</v>
+      </c>
+      <c r="D88" t="str">
+        <v>Supplies and materials - COS</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>500.06</v>
+      </c>
+      <c r="B89" t="str">
+        <v>Insumos Reactivos</v>
+      </c>
+      <c r="C89" t="str">
+        <v>Cost of sales</v>
+      </c>
+      <c r="D89" t="str">
+        <v>Supplies and materials - COS</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>500.07</v>
+      </c>
+      <c r="B90" t="str">
+        <v>Insumos Accesorio y Otros</v>
+      </c>
+      <c r="C90" t="str">
+        <v>Cost of sales</v>
+      </c>
+      <c r="D90" t="str">
+        <v>Supplies and materials - COS</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>500.08</v>
+      </c>
+      <c r="B91" t="str">
+        <v>Insumos Accesorios y Otras</v>
+      </c>
+      <c r="C91" t="str">
+        <v>Cost of sales</v>
+      </c>
+      <c r="D91" t="str">
+        <v>Supplies and materials - COS</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>3003</v>
+      </c>
+      <c r="B92" t="str">
+        <v>Uncategorized Expense(Gastos no categorizados)</v>
+      </c>
+      <c r="C92" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D92" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>3009</v>
+      </c>
+      <c r="B93" t="str">
+        <v>Purchases</v>
+      </c>
+      <c r="C93" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D93" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>3013</v>
+      </c>
+      <c r="B94" t="str">
+        <v>Unapplied Cash Bill Payment Expense</v>
+      </c>
+      <c r="C94" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D94" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>600</v>
+      </c>
+      <c r="B95" t="str">
+        <v>SUELDOS Y SALARIOS</v>
+      </c>
+      <c r="C95" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D95" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>600.01</v>
+      </c>
+      <c r="B96" t="str">
+        <v>Coordinacion</v>
+      </c>
+      <c r="C96" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D96" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>600.02</v>
+      </c>
+      <c r="B97" t="str">
+        <v>Contabilidad/Admin</v>
+      </c>
+      <c r="C97" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D97" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>600.03</v>
+      </c>
+      <c r="B98" t="str">
+        <v>Circuit Riders</v>
+      </c>
+      <c r="C98" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D98" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>600.031</v>
+      </c>
+      <c r="B99" t="str">
+        <v>Tecnicos de Carbono</v>
+      </c>
+      <c r="C99" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D99" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>600.04</v>
+      </c>
+      <c r="B100" t="str">
+        <v>Laboratorio y Salud</v>
+      </c>
+      <c r="C100" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D100" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>600.05</v>
+      </c>
+      <c r="B101" t="str">
+        <v>Honorarios Prof/Contratista</v>
+      </c>
+      <c r="C101" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D101" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102">
+        <v>600.06</v>
+      </c>
+      <c r="B102" t="str">
+        <v>Bonus Empleados</v>
+      </c>
+      <c r="C102" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D102" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103">
+        <v>600.07</v>
+      </c>
+      <c r="B103" t="str">
+        <v>Pago Terceavo Mes</v>
+      </c>
+      <c r="C103" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D103" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104">
+        <v>600.08</v>
+      </c>
+      <c r="B104" t="str">
+        <v>Pago Catorceavo Mes</v>
+      </c>
+      <c r="C104" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D104" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105">
+        <v>600.09</v>
+      </c>
+      <c r="B105" t="str">
+        <v>Cotizacion al I.H.S.S.</v>
+      </c>
+      <c r="C105" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D105" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106">
+        <v>600.1</v>
+      </c>
+      <c r="B106" t="str">
+        <v>Seguro de Vida Empleados</v>
+      </c>
+      <c r="C106" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D106" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107">
+        <v>600.11</v>
+      </c>
+      <c r="B107" t="str">
+        <v>Proyeccion Social</v>
+      </c>
+      <c r="C107" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D107" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108">
+        <v>600.12</v>
+      </c>
+      <c r="B108" t="str">
+        <v>Prestaciones Liquidades</v>
+      </c>
+      <c r="C108" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D108" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109">
+        <v>610</v>
+      </c>
+      <c r="B109" t="str">
+        <v>GASTOS DE PROYECTOS</v>
+      </c>
+      <c r="C109" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D109" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110">
+        <v>610.01</v>
+      </c>
+      <c r="B110" t="str">
+        <v>Gastos para Ejecusion de Proyectos</v>
+      </c>
+      <c r="C110" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D110" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111">
+        <v>610.02</v>
+      </c>
+      <c r="B111" t="str">
+        <v>Programa de Salud e Higiene</v>
+      </c>
+      <c r="C111" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D111" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112">
+        <v>620</v>
+      </c>
+      <c r="B112" t="str">
+        <v>GASTOS DEL OFICINA</v>
+      </c>
+      <c r="C112" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D112" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113">
+        <v>620.01</v>
+      </c>
+      <c r="B113" t="str">
+        <v>Aquiliar de Local</v>
+      </c>
+      <c r="C113" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D113" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114">
+        <v>620.02</v>
+      </c>
+      <c r="B114" t="str">
+        <v>Mantienmento de Equipo de Oficina</v>
+      </c>
+      <c r="C114" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D114" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115">
+        <v>620.03</v>
+      </c>
+      <c r="B115" t="str">
+        <v>Impuestos Sobre la Renta</v>
+      </c>
+      <c r="C115" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D115" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116">
+        <v>620.04</v>
+      </c>
+      <c r="B116" t="str">
+        <v>Papeleria y Utiles de Oficina</v>
+      </c>
+      <c r="C116" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D116" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117">
+        <v>620.05</v>
+      </c>
+      <c r="B117" t="str">
+        <v>Servicios Publicos</v>
+      </c>
+      <c r="C117" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D117" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118">
+        <v>620.06</v>
+      </c>
+      <c r="B118" t="str">
+        <v>Propaganda y Publicidad</v>
+      </c>
+      <c r="C118" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D118" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119">
+        <v>620.07</v>
+      </c>
+      <c r="B119" t="str">
+        <v>Pagina Web</v>
+      </c>
+      <c r="C119" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D119" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120">
+        <v>620.08</v>
+      </c>
+      <c r="B120" t="str">
+        <v>Otros Gastos</v>
+      </c>
+      <c r="C120" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D120" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121">
+        <v>630</v>
+      </c>
+      <c r="B121" t="str">
+        <v>GASTOS DE TRANSPORTE</v>
+      </c>
+      <c r="C121" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D121" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122">
+        <v>630.01</v>
+      </c>
+      <c r="B122" t="str">
+        <v>Gastos por Transporte</v>
+      </c>
+      <c r="C122" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D122" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123">
+        <v>630.02</v>
+      </c>
+      <c r="B123" t="str">
+        <v>Repuestos y Mantienmento de Vehicilos</v>
+      </c>
+      <c r="C123" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D123" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124">
+        <v>630.03</v>
+      </c>
+      <c r="B124" t="str">
+        <v>Gastos de Viajes</v>
+      </c>
+      <c r="C124" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D124" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125">
+        <v>630.04</v>
+      </c>
+      <c r="B125" t="str">
+        <v>Gastos de Capacitiacion</v>
+      </c>
+      <c r="C125" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D125" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126">
+        <v>630.05</v>
+      </c>
+      <c r="B126" t="str">
+        <v>Combustibles y Lubricantes</v>
+      </c>
+      <c r="C126" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D126" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127">
+        <v>630.06</v>
+      </c>
+      <c r="B127" t="str">
+        <v>Matricula de Vehiculos</v>
+      </c>
+      <c r="C127" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D127" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128">
+        <v>630.07</v>
+      </c>
+      <c r="B128" t="str">
+        <v>Gastos de Viaticos</v>
+      </c>
+      <c r="C128" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D128" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+      <c r="E128" t="str">
+        <v>Gastos de viaticos, alimentación, etc.</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129">
+        <v>630.08</v>
+      </c>
+      <c r="B129" t="str">
+        <v>Alquiler de Motocicleta</v>
+      </c>
+      <c r="C129" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D129" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130">
+        <v>640</v>
+      </c>
+      <c r="B130" t="str">
+        <v>GASTOS BANCARIO</v>
+      </c>
+      <c r="C130" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D130" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131">
+        <v>640.01</v>
+      </c>
+      <c r="B131" t="str">
+        <v>Depreciaciones</v>
+      </c>
+      <c r="C131" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D131" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132">
+        <v>640.02</v>
+      </c>
+      <c r="B132" t="str">
+        <v>Cargo por Chequera</v>
+      </c>
+      <c r="C132" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D132" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133">
+        <v>640.03</v>
+      </c>
+      <c r="B133" t="str">
+        <v>Tasa de Seguridad</v>
+      </c>
+      <c r="C133" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D133" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134">
+        <v>640.04</v>
+      </c>
+      <c r="B134" t="str">
+        <v>Comision Bancaria</v>
+      </c>
+      <c r="C134" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D134" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135">
+        <v>640.05</v>
+      </c>
+      <c r="B135" t="str">
+        <v>Perdida por cuentas incobrables</v>
+      </c>
+      <c r="C135" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D135" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136">
+        <v>640.06</v>
+      </c>
+      <c r="B136" t="str">
+        <v>Gasto Diferencial Cambiario</v>
+      </c>
+      <c r="C136" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D136" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+      <c r="E136" t="str">
+        <v>Ajuste Tasa de Cambio</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137">
+        <v>650</v>
+      </c>
+      <c r="B137" t="str">
+        <v>Reservas</v>
+      </c>
+      <c r="C137" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D137" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+      <c r="E137" t="str">
+        <v>Fondos de reservas de años siguientes</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138">
+        <v>650.01</v>
+      </c>
+      <c r="B138" t="str">
+        <v>Reservas:Reservas</v>
+      </c>
+      <c r="C138" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D138" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139">
+        <v>660</v>
+      </c>
+      <c r="B139" t="str">
+        <v>SERVICIO FORESTAL (CUENTA PRINCIPAL)</v>
+      </c>
+      <c r="C139" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D139" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140">
+        <v>660.01</v>
+      </c>
+      <c r="B140" t="str">
+        <v>SERVICIO FORESTAL (CUENTA PRINCIPAL):Servicio Forestal- Equipo</v>
+      </c>
+      <c r="C140" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D140" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141">
+        <v>660.02</v>
+      </c>
+      <c r="B141" t="str">
+        <v>SERVICIO FORESTAL (CUENTA PRINCIPAL):Servicio Forestal- Suministros</v>
+      </c>
+      <c r="C141" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D141" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142">
+        <v>660.03</v>
+      </c>
+      <c r="B142" t="str">
+        <v>SERVICIO FORESTAL (CUENTA PRINCIPAL):Servicio Forestal- Contractual</v>
+      </c>
+      <c r="C142" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D142" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143">
+        <v>660.04</v>
+      </c>
+      <c r="B143" t="str">
+        <v>SERVICIO FORESTAL (CUENTA PRINCIPAL):Servicio Forestal- Otro</v>
+      </c>
+      <c r="C143" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D143" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144">
+        <v>660.05</v>
+      </c>
+      <c r="B144" t="str">
+        <v>SERVICIO FORESTAL (CUENTA PRINCIPAL):Servicio Forestal- Personal</v>
+      </c>
+      <c r="C144" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D144" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145">
+        <v>660.06</v>
+      </c>
+      <c r="B145" t="str">
+        <v>SERVICIO FORESTAL (CUENTA PRINCIPAL):Servicio Forestal- Costos Indirectos</v>
+      </c>
+      <c r="C145" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D145" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146">
+        <v>660.07</v>
+      </c>
+      <c r="B146" t="str">
+        <v>SERVICIO FORESTAL (CUENTA PRINCIPAL):Servicio Forestal- Transporte</v>
+      </c>
+      <c r="C146" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D146" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147">
+        <v>3010</v>
+      </c>
+      <c r="B147" t="str">
+        <v>Other Miscellaneous Expense</v>
+      </c>
+      <c r="C147" t="str">
+        <v>Other Expense</v>
+      </c>
+      <c r="D147" t="str">
+        <v>Other Miscellaneous Expense</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148">
+        <v>3016</v>
+      </c>
+      <c r="B148" t="str">
+        <v>Reconciliation Discrepancies</v>
+      </c>
+      <c r="C148" t="str">
+        <v>Other Expense</v>
+      </c>
+      <c r="D148" t="str">
+        <v>Other Miscellaneous Expense</v>
+      </c>
+    </row>
+  </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:A56"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E148"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/server/data/coa/modifiedCoa.xlsx
+++ b/server/data/coa/modifiedCoa.xlsx
@@ -431,7 +431,7 @@
         <v>Cash and cash equivalents</v>
       </c>
       <c r="D2" t="str">
-        <v>Bank</v>
+        <v>Cash and cash equivalents</v>
       </c>
     </row>
     <row r="3">
@@ -445,7 +445,7 @@
         <v>Cash and cash equivalents</v>
       </c>
       <c r="D3" t="str">
-        <v>Bank</v>
+        <v>Cash and cash equivalents</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>Cash and cash equivalents</v>
       </c>
       <c r="D4" t="str">
-        <v>Bank</v>
+        <v>Cash and cash equivalents</v>
       </c>
     </row>
     <row r="5">
@@ -473,7 +473,7 @@
         <v>Cash and cash equivalents</v>
       </c>
       <c r="D5" t="str">
-        <v>Bank</v>
+        <v>Cash and cash equivalents</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         <v>Cash and cash equivalents</v>
       </c>
       <c r="D6" t="str">
-        <v>Bank</v>
+        <v>Cash and cash equivalents</v>
       </c>
     </row>
     <row r="7">
@@ -501,7 +501,7 @@
         <v>Cash and cash equivalents</v>
       </c>
       <c r="D7" t="str">
-        <v>Bank</v>
+        <v>Cash and cash equivalents</v>
       </c>
     </row>
     <row r="8">
@@ -515,7 +515,7 @@
         <v>Cash and cash equivalents</v>
       </c>
       <c r="D8" t="str">
-        <v>Bank</v>
+        <v>Cash and cash equivalents</v>
       </c>
     </row>
     <row r="9">
@@ -529,7 +529,7 @@
         <v>Cash and cash equivalents</v>
       </c>
       <c r="D9" t="str">
-        <v>Bank</v>
+        <v>Cash and cash equivalents</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         <v>Cash and cash equivalents</v>
       </c>
       <c r="D10" t="str">
-        <v>Bank</v>
+        <v>Cash and cash equivalents</v>
       </c>
     </row>
     <row r="11">
@@ -557,7 +557,7 @@
         <v>Cash and cash equivalents</v>
       </c>
       <c r="D11" t="str">
-        <v>Bank</v>
+        <v>Cash and cash equivalents</v>
       </c>
     </row>
     <row r="12">
@@ -571,7 +571,7 @@
         <v>Cash and cash equivalents</v>
       </c>
       <c r="D12" t="str">
-        <v>Bank</v>
+        <v>Cash and cash equivalents</v>
       </c>
       <c r="E12" t="str">
         <v>Gastos Operativos</v>
@@ -588,7 +588,7 @@
         <v>Cash and cash equivalents</v>
       </c>
       <c r="D13" t="str">
-        <v>Bank</v>
+        <v>Cash and cash equivalents</v>
       </c>
       <c r="E13" t="str">
         <v>Otros Ingresos</v>
@@ -605,7 +605,7 @@
         <v>Cash and cash equivalents</v>
       </c>
       <c r="D14" t="str">
-        <v>Bank</v>
+        <v>Cash and cash equivalents</v>
       </c>
       <c r="E14" t="str">
         <v>Beneficios Laborales</v>
@@ -622,7 +622,7 @@
         <v>Cash and cash equivalents</v>
       </c>
       <c r="D15" t="str">
-        <v>Bank</v>
+        <v>Cash and cash equivalents</v>
       </c>
       <c r="E15" t="str">
         <v>Transferencias de EOS en USD</v>
@@ -639,7 +639,7 @@
         <v>Cash and cash equivalents</v>
       </c>
       <c r="D16" t="str">
-        <v>Bank</v>
+        <v>Cash and cash equivalents</v>
       </c>
     </row>
     <row r="17">
@@ -678,10 +678,10 @@
         <v>ANTICIPOS</v>
       </c>
       <c r="C19" t="str">
-        <v>Current assets</v>
+        <v>Non-current assets</v>
       </c>
       <c r="D19" t="str">
-        <v>Other current assets</v>
+        <v>Other non-current assets</v>
       </c>
     </row>
     <row r="20">
@@ -692,10 +692,10 @@
         <v>ANTICIPOS:Anticipos</v>
       </c>
       <c r="C20" t="str">
-        <v>Current assets</v>
+        <v>Non-current assets</v>
       </c>
       <c r="D20" t="str">
-        <v>Other current assets</v>
+        <v>Other non-current assets</v>
       </c>
     </row>
     <row r="21">
@@ -706,10 +706,10 @@
         <v>ANTICIPOS:Impuestos sobre la Renta (Pago a la cuenta)</v>
       </c>
       <c r="C21" t="str">
-        <v>Current assets</v>
+        <v>Non-current assets</v>
       </c>
       <c r="D21" t="str">
-        <v>Other current assets</v>
+        <v>Other non-current assets</v>
       </c>
       <c r="E21" t="str">
         <v>Pago a ls cuenta</v>
@@ -723,10 +723,10 @@
         <v>ANTICIPOS:Impuestos sobre Ventas (Pagado)</v>
       </c>
       <c r="C22" t="str">
-        <v>Current assets</v>
+        <v>Non-current assets</v>
       </c>
       <c r="D22" t="str">
-        <v>Other current assets</v>
+        <v>Other non-current assets</v>
       </c>
     </row>
     <row r="23">
@@ -737,10 +737,10 @@
         <v>INVENTARIO</v>
       </c>
       <c r="C23" t="str">
-        <v>Current assets</v>
+        <v>Non-current assets</v>
       </c>
       <c r="D23" t="str">
-        <v>Other current assets</v>
+        <v>Other non-current assets</v>
       </c>
     </row>
     <row r="24">
@@ -751,10 +751,10 @@
         <v>INVENTARIO:Inventario - Analsis de Agua</v>
       </c>
       <c r="C24" t="str">
-        <v>Current assets</v>
+        <v>Non-current assets</v>
       </c>
       <c r="D24" t="str">
-        <v>Other current assets</v>
+        <v>Other non-current assets</v>
       </c>
     </row>
     <row r="25">
@@ -765,10 +765,10 @@
         <v>INVENTARIO:Inventario  - Cloro Tabletas</v>
       </c>
       <c r="C25" t="str">
-        <v>Current assets</v>
+        <v>Non-current assets</v>
       </c>
       <c r="D25" t="str">
-        <v>Other current assets</v>
+        <v>Other non-current assets</v>
       </c>
     </row>
     <row r="26">
@@ -779,10 +779,10 @@
         <v>INVENTARIO:Inventario - Cloro Granulado (en libras)</v>
       </c>
       <c r="C26" t="str">
-        <v>Current assets</v>
+        <v>Non-current assets</v>
       </c>
       <c r="D26" t="str">
-        <v>Other current assets</v>
+        <v>Other non-current assets</v>
       </c>
     </row>
     <row r="27">
@@ -793,10 +793,10 @@
         <v>INVENTARIO:Inventario - Cloradores</v>
       </c>
       <c r="C27" t="str">
-        <v>Current assets</v>
+        <v>Non-current assets</v>
       </c>
       <c r="D27" t="str">
-        <v>Other current assets</v>
+        <v>Other non-current assets</v>
       </c>
     </row>
     <row r="28">
@@ -807,10 +807,10 @@
         <v>INVENTARIO:Inventario - Fitros</v>
       </c>
       <c r="C28" t="str">
-        <v>Current assets</v>
+        <v>Non-current assets</v>
       </c>
       <c r="D28" t="str">
-        <v>Other current assets</v>
+        <v>Other non-current assets</v>
       </c>
     </row>
     <row r="29">
@@ -821,10 +821,10 @@
         <v>INVENTARIO:Inventario - Reactivos y Kit Cloro</v>
       </c>
       <c r="C29" t="str">
-        <v>Current assets</v>
+        <v>Non-current assets</v>
       </c>
       <c r="D29" t="str">
-        <v>Other current assets</v>
+        <v>Other non-current assets</v>
       </c>
     </row>
     <row r="30">
@@ -835,10 +835,10 @@
         <v>INVENTARIO:Inventario - Accesorios y Otras</v>
       </c>
       <c r="C30" t="str">
-        <v>Current assets</v>
+        <v>Non-current assets</v>
       </c>
       <c r="D30" t="str">
-        <v>Other current assets</v>
+        <v>Other non-current assets</v>
       </c>
     </row>
     <row r="31">
@@ -849,10 +849,10 @@
         <v>OTROS ACTIVOS CIRCULANTES</v>
       </c>
       <c r="C31" t="str">
-        <v>Current assets</v>
+        <v>Non-current assets</v>
       </c>
       <c r="D31" t="str">
-        <v>Other current assets</v>
+        <v>Other non-current assets</v>
       </c>
     </row>
     <row r="32">
@@ -863,10 +863,10 @@
         <v>Prestamos a Empleados</v>
       </c>
       <c r="C32" t="str">
-        <v>Current assets</v>
+        <v>Non-current assets</v>
       </c>
       <c r="D32" t="str">
-        <v>Other current assets</v>
+        <v>Other non-current assets</v>
       </c>
     </row>
     <row r="33">
@@ -877,10 +877,10 @@
         <v>Deodores Varios</v>
       </c>
       <c r="C33" t="str">
-        <v>Current assets</v>
+        <v>Non-current assets</v>
       </c>
       <c r="D33" t="str">
-        <v>Other current assets</v>
+        <v>Other non-current assets</v>
       </c>
     </row>
     <row r="34">
@@ -891,10 +891,10 @@
         <v>OTROS ACTIVOS CIRCULANTES:Prestamo EOS</v>
       </c>
       <c r="C34" t="str">
-        <v>Current assets</v>
+        <v>Non-current assets</v>
       </c>
       <c r="D34" t="str">
-        <v>Other current assets</v>
+        <v>Other non-current assets</v>
       </c>
       <c r="E34" t="str">
         <v>Prestamo Motocicleta</v>
@@ -908,10 +908,10 @@
         <v>Uncategorized Asset (Activo sin categorizado)</v>
       </c>
       <c r="C35" t="str">
-        <v>Current assets</v>
+        <v>Non-current assets</v>
       </c>
       <c r="D35" t="str">
-        <v>Other current assets</v>
+        <v>Other non-current assets</v>
       </c>
     </row>
     <row r="36">
@@ -922,10 +922,10 @@
         <v>Undeposited Funds</v>
       </c>
       <c r="C36" t="str">
-        <v>Current assets</v>
+        <v>Non-current assets</v>
       </c>
       <c r="D36" t="str">
-        <v>Other current assets</v>
+        <v>Other non-current assets</v>
       </c>
     </row>
     <row r="37">
@@ -936,10 +936,10 @@
         <v>Inventory Asset</v>
       </c>
       <c r="C37" t="str">
-        <v>Current assets</v>
+        <v>Non-current assets</v>
       </c>
       <c r="D37" t="str">
-        <v>Other current assets</v>
+        <v>Other non-current assets</v>
       </c>
     </row>
     <row r="38">
@@ -1062,7 +1062,7 @@
         <v>Cuentas por Pagar</v>
       </c>
       <c r="C46" t="str">
-        <v>Accounts Payable (A/P)</v>
+        <v>Accounts payable (A/P)</v>
       </c>
       <c r="D46" t="str">
         <v>Accounts Payable (A/P)</v>
@@ -1076,10 +1076,10 @@
         <v>ACREEDORES DIVERSOS</v>
       </c>
       <c r="C47" t="str">
-        <v>Current liabilities</v>
+        <v>Non-current liabilities</v>
       </c>
       <c r="D47" t="str">
-        <v>Other current liabilities</v>
+        <v>Other non-current liabilities</v>
       </c>
     </row>
     <row r="48">
@@ -1090,10 +1090,10 @@
         <v>RETENCIONES POR PAGAR</v>
       </c>
       <c r="C48" t="str">
-        <v>Current liabilities</v>
+        <v>Non-current liabilities</v>
       </c>
       <c r="D48" t="str">
-        <v>Other current liabilities</v>
+        <v>Other non-current liabilities</v>
       </c>
     </row>
     <row r="49">
@@ -1104,10 +1104,10 @@
         <v>RETENCIONES POR PAGAR:Benef. y Prest. Lab. de Empleados</v>
       </c>
       <c r="C49" t="str">
-        <v>Current liabilities</v>
+        <v>Non-current liabilities</v>
       </c>
       <c r="D49" t="str">
-        <v>Other current liabilities</v>
+        <v>Other non-current liabilities</v>
       </c>
     </row>
     <row r="50">
@@ -1118,10 +1118,10 @@
         <v>RETENCIONES POR PAGAR:Fondos por Ejecutar</v>
       </c>
       <c r="C50" t="str">
-        <v>Current liabilities</v>
+        <v>Non-current liabilities</v>
       </c>
       <c r="D50" t="str">
-        <v>Other current liabilities</v>
+        <v>Other non-current liabilities</v>
       </c>
     </row>
     <row r="51">
@@ -1132,10 +1132,10 @@
         <v>RETENCIONES POR PAGAR:Transferencias no Ejecutadas</v>
       </c>
       <c r="C51" t="str">
-        <v>Current liabilities</v>
+        <v>Non-current liabilities</v>
       </c>
       <c r="D51" t="str">
-        <v>Other current liabilities</v>
+        <v>Other non-current liabilities</v>
       </c>
     </row>
     <row r="52">
@@ -1146,10 +1146,10 @@
         <v>RETENCIONES POR PAGAR:Seguros por Pagar</v>
       </c>
       <c r="C52" t="str">
-        <v>Current liabilities</v>
+        <v>Non-current liabilities</v>
       </c>
       <c r="D52" t="str">
-        <v>Other current liabilities</v>
+        <v>Other non-current liabilities</v>
       </c>
     </row>
     <row r="53">
@@ -1586,7 +1586,7 @@
         <v>Cost of sales</v>
       </c>
       <c r="D83" t="str">
-        <v>Supplies and materials - COS</v>
+        <v>Cost of Sales</v>
       </c>
     </row>
     <row r="84">
@@ -1600,7 +1600,7 @@
         <v>Cost of sales</v>
       </c>
       <c r="D84" t="str">
-        <v>Supplies and materials - COS</v>
+        <v>Cost of Sales</v>
       </c>
     </row>
     <row r="85">
@@ -1614,7 +1614,7 @@
         <v>Cost of sales</v>
       </c>
       <c r="D85" t="str">
-        <v>Supplies and materials - COS</v>
+        <v>Cost of Sales</v>
       </c>
     </row>
     <row r="86">
@@ -1628,7 +1628,7 @@
         <v>Cost of sales</v>
       </c>
       <c r="D86" t="str">
-        <v>Supplies and materials - COS</v>
+        <v>Cost of Sales</v>
       </c>
     </row>
     <row r="87">
@@ -1642,7 +1642,7 @@
         <v>Cost of sales</v>
       </c>
       <c r="D87" t="str">
-        <v>Supplies and materials - COS</v>
+        <v>Cost of Sales</v>
       </c>
     </row>
     <row r="88">
@@ -1656,7 +1656,7 @@
         <v>Cost of sales</v>
       </c>
       <c r="D88" t="str">
-        <v>Supplies and materials - COS</v>
+        <v>Cost of Sales</v>
       </c>
     </row>
     <row r="89">
@@ -1670,7 +1670,7 @@
         <v>Cost of sales</v>
       </c>
       <c r="D89" t="str">
-        <v>Supplies and materials - COS</v>
+        <v>Cost of Sales</v>
       </c>
     </row>
     <row r="90">
@@ -1684,7 +1684,7 @@
         <v>Cost of sales</v>
       </c>
       <c r="D90" t="str">
-        <v>Supplies and materials - COS</v>
+        <v>Cost of Sales</v>
       </c>
     </row>
     <row r="91">
@@ -1698,7 +1698,7 @@
         <v>Cost of sales</v>
       </c>
       <c r="D91" t="str">
-        <v>Supplies and materials - COS</v>
+        <v>Cost of Sales</v>
       </c>
     </row>
     <row r="92">

--- a/server/data/coa/modifiedCoa.xlsx
+++ b/server/data/coa/modifiedCoa.xlsx
@@ -398,13 +398,2119 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E148"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Account No.</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Account</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Type</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Detail type</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Description</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>100</v>
+      </c>
+      <c r="B2" t="str">
+        <v>CAJA</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Cash and cash equivalents</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Cash and cash equivalents</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>100.01</v>
+      </c>
+      <c r="B3" t="str">
+        <v>CAJA:Caja General</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Cash and cash equivalents</v>
+      </c>
+      <c r="D3" t="str">
+        <v>Cash and cash equivalents</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>100.02</v>
+      </c>
+      <c r="B4" t="str">
+        <v>CAJA:Caja Chica</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Cash and cash equivalents</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Cash and cash equivalents</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>101</v>
+      </c>
+      <c r="B5" t="str">
+        <v>BANCOS</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Cash and cash equivalents</v>
+      </c>
+      <c r="D5" t="str">
+        <v>Cash and cash equivalents</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>101.01</v>
+      </c>
+      <c r="B6" t="str">
+        <v>BANCOS:(CERRADO)Cta. Cheq. 11-302-001083-2</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Cash and cash equivalents</v>
+      </c>
+      <c r="D6" t="str">
+        <v>Cash and cash equivalents</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>101.02</v>
+      </c>
+      <c r="B7" t="str">
+        <v>BANCOS:(CERRADO)Cta. Cheq. 11-302-001077-8</v>
+      </c>
+      <c r="C7" t="str">
+        <v>Cash and cash equivalents</v>
+      </c>
+      <c r="D7" t="str">
+        <v>Cash and cash equivalents</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>101.03</v>
+      </c>
+      <c r="B8" t="str">
+        <v>BANCOS:(CERRADO)Cta. Cheq. 11-302-001084-0</v>
+      </c>
+      <c r="C8" t="str">
+        <v>Cash and cash equivalents</v>
+      </c>
+      <c r="D8" t="str">
+        <v>Cash and cash equivalents</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>101.04</v>
+      </c>
+      <c r="B9" t="str">
+        <v>BANCOS:(CERRADO)Cta. Ahorro 21-302-021225-3</v>
+      </c>
+      <c r="C9" t="str">
+        <v>Cash and cash equivalents</v>
+      </c>
+      <c r="D9" t="str">
+        <v>Cash and cash equivalents</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>101.05</v>
+      </c>
+      <c r="B10" t="str">
+        <v>BANCOS:(CERRADO)Cta. Ahorro 21-302-021274-1</v>
+      </c>
+      <c r="C10" t="str">
+        <v>Cash and cash equivalents</v>
+      </c>
+      <c r="D10" t="str">
+        <v>Cash and cash equivalents</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>101.06</v>
+      </c>
+      <c r="B11" t="str">
+        <v>BANCOS:(CERRADO)Cta. Ahorro USD 22-302-000859-9</v>
+      </c>
+      <c r="C11" t="str">
+        <v>Cash and cash equivalents</v>
+      </c>
+      <c r="D11" t="str">
+        <v>Cash and cash equivalents</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>101.07</v>
+      </c>
+      <c r="B12" t="str">
+        <v>BANCOS:Cta.Gastos Operat-21-302-0332470</v>
+      </c>
+      <c r="C12" t="str">
+        <v>Cash and cash equivalents</v>
+      </c>
+      <c r="D12" t="str">
+        <v>Cash and cash equivalents</v>
+      </c>
+      <c r="E12" t="str">
+        <v>Gastos Operativos</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>101.08</v>
+      </c>
+      <c r="B13" t="str">
+        <v>BANCOS:Cta.Otros Ingresos-21-302-0332488</v>
+      </c>
+      <c r="C13" t="str">
+        <v>Cash and cash equivalents</v>
+      </c>
+      <c r="D13" t="str">
+        <v>Cash and cash equivalents</v>
+      </c>
+      <c r="E13" t="str">
+        <v>Otros Ingresos</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>101.09</v>
+      </c>
+      <c r="B14" t="str">
+        <v>BANCOS:Cta.BeneficiosLab-21-302-0332496</v>
+      </c>
+      <c r="C14" t="str">
+        <v>Cash and cash equivalents</v>
+      </c>
+      <c r="D14" t="str">
+        <v>Cash and cash equivalents</v>
+      </c>
+      <c r="E14" t="str">
+        <v>Beneficios Laborales</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>101.1</v>
+      </c>
+      <c r="B15" t="str">
+        <v>BANCOS:Cta.Transf-USD-22-302-0013169</v>
+      </c>
+      <c r="C15" t="str">
+        <v>Cash and cash equivalents</v>
+      </c>
+      <c r="D15" t="str">
+        <v>Cash and cash equivalents</v>
+      </c>
+      <c r="E15" t="str">
+        <v>Transferencias de EOS en USD</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>101.11</v>
+      </c>
+      <c r="B16" t="str">
+        <v>BANCOS:Cta. Ahorro-USFS 21-302-039430-0</v>
+      </c>
+      <c r="C16" t="str">
+        <v>Cash and cash equivalents</v>
+      </c>
+      <c r="D16" t="str">
+        <v>Cash and cash equivalents</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>103.01</v>
+      </c>
+      <c r="B17" t="str">
+        <v>CUENTAS POR COBRAR</v>
+      </c>
+      <c r="C17" t="str">
+        <v>Accounts receivable (A/R)</v>
+      </c>
+      <c r="D17" t="str">
+        <v>Accounts receivable (A/R)</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>103.02</v>
+      </c>
+      <c r="B18" t="str">
+        <v>CUENTAS POR COBRAR:Cuentas Incobrales</v>
+      </c>
+      <c r="C18" t="str">
+        <v>Accounts receivable (A/R)</v>
+      </c>
+      <c r="D18" t="str">
+        <v>Accounts receivable (A/R)</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>102</v>
+      </c>
+      <c r="B19" t="str">
+        <v>ANTICIPOS</v>
+      </c>
+      <c r="C19" t="str">
+        <v>Non-current assets</v>
+      </c>
+      <c r="D19" t="str">
+        <v>Other non-current assets</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>102.01</v>
+      </c>
+      <c r="B20" t="str">
+        <v>ANTICIPOS:Anticipos</v>
+      </c>
+      <c r="C20" t="str">
+        <v>Non-current assets</v>
+      </c>
+      <c r="D20" t="str">
+        <v>Other non-current assets</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>102.02</v>
+      </c>
+      <c r="B21" t="str">
+        <v>ANTICIPOS:Impuestos sobre la Renta (Pago a la cuenta)</v>
+      </c>
+      <c r="C21" t="str">
+        <v>Non-current assets</v>
+      </c>
+      <c r="D21" t="str">
+        <v>Other non-current assets</v>
+      </c>
+      <c r="E21" t="str">
+        <v>Pago a ls cuenta</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>102.03</v>
+      </c>
+      <c r="B22" t="str">
+        <v>ANTICIPOS:Impuestos sobre Ventas (Pagado)</v>
+      </c>
+      <c r="C22" t="str">
+        <v>Non-current assets</v>
+      </c>
+      <c r="D22" t="str">
+        <v>Other non-current assets</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>104</v>
+      </c>
+      <c r="B23" t="str">
+        <v>INVENTARIO</v>
+      </c>
+      <c r="C23" t="str">
+        <v>Non-current assets</v>
+      </c>
+      <c r="D23" t="str">
+        <v>Other non-current assets</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>104.01</v>
+      </c>
+      <c r="B24" t="str">
+        <v>INVENTARIO:Inventario - Analsis de Agua</v>
+      </c>
+      <c r="C24" t="str">
+        <v>Non-current assets</v>
+      </c>
+      <c r="D24" t="str">
+        <v>Other non-current assets</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>104.02</v>
+      </c>
+      <c r="B25" t="str">
+        <v>INVENTARIO:Inventario  - Cloro Tabletas</v>
+      </c>
+      <c r="C25" t="str">
+        <v>Non-current assets</v>
+      </c>
+      <c r="D25" t="str">
+        <v>Other non-current assets</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>104.03</v>
+      </c>
+      <c r="B26" t="str">
+        <v>INVENTARIO:Inventario - Cloro Granulado (en libras)</v>
+      </c>
+      <c r="C26" t="str">
+        <v>Non-current assets</v>
+      </c>
+      <c r="D26" t="str">
+        <v>Other non-current assets</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>104.04</v>
+      </c>
+      <c r="B27" t="str">
+        <v>INVENTARIO:Inventario - Cloradores</v>
+      </c>
+      <c r="C27" t="str">
+        <v>Non-current assets</v>
+      </c>
+      <c r="D27" t="str">
+        <v>Other non-current assets</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>104.05</v>
+      </c>
+      <c r="B28" t="str">
+        <v>INVENTARIO:Inventario - Fitros</v>
+      </c>
+      <c r="C28" t="str">
+        <v>Non-current assets</v>
+      </c>
+      <c r="D28" t="str">
+        <v>Other non-current assets</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>104.06</v>
+      </c>
+      <c r="B29" t="str">
+        <v>INVENTARIO:Inventario - Reactivos y Kit Cloro</v>
+      </c>
+      <c r="C29" t="str">
+        <v>Non-current assets</v>
+      </c>
+      <c r="D29" t="str">
+        <v>Other non-current assets</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>104.07</v>
+      </c>
+      <c r="B30" t="str">
+        <v>INVENTARIO:Inventario - Accesorios y Otras</v>
+      </c>
+      <c r="C30" t="str">
+        <v>Non-current assets</v>
+      </c>
+      <c r="D30" t="str">
+        <v>Other non-current assets</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>105</v>
+      </c>
+      <c r="B31" t="str">
+        <v>OTROS ACTIVOS CIRCULANTES</v>
+      </c>
+      <c r="C31" t="str">
+        <v>Non-current assets</v>
+      </c>
+      <c r="D31" t="str">
+        <v>Other non-current assets</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>105.01</v>
+      </c>
+      <c r="B32" t="str">
+        <v>Prestamos a Empleados</v>
+      </c>
+      <c r="C32" t="str">
+        <v>Non-current assets</v>
+      </c>
+      <c r="D32" t="str">
+        <v>Other non-current assets</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>105.02</v>
+      </c>
+      <c r="B33" t="str">
+        <v>Deodores Varios</v>
+      </c>
+      <c r="C33" t="str">
+        <v>Non-current assets</v>
+      </c>
+      <c r="D33" t="str">
+        <v>Other non-current assets</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>105.03</v>
+      </c>
+      <c r="B34" t="str">
+        <v>OTROS ACTIVOS CIRCULANTES:Prestamo EOS</v>
+      </c>
+      <c r="C34" t="str">
+        <v>Non-current assets</v>
+      </c>
+      <c r="D34" t="str">
+        <v>Other non-current assets</v>
+      </c>
+      <c r="E34" t="str">
+        <v>Prestamo Motocicleta</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>3004</v>
+      </c>
+      <c r="B35" t="str">
+        <v>Uncategorized Asset (Activo sin categorizado)</v>
+      </c>
+      <c r="C35" t="str">
+        <v>Non-current assets</v>
+      </c>
+      <c r="D35" t="str">
+        <v>Other non-current assets</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>3011</v>
+      </c>
+      <c r="B36" t="str">
+        <v>Undeposited Funds</v>
+      </c>
+      <c r="C36" t="str">
+        <v>Non-current assets</v>
+      </c>
+      <c r="D36" t="str">
+        <v>Other non-current assets</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>8965</v>
+      </c>
+      <c r="B37" t="str">
+        <v>Inventory Asset</v>
+      </c>
+      <c r="C37" t="str">
+        <v>Non-current assets</v>
+      </c>
+      <c r="D37" t="str">
+        <v>Other non-current assets</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>120</v>
+      </c>
+      <c r="B38" t="str">
+        <v>MOBILIARIO Y EQUIPO</v>
+      </c>
+      <c r="C38" t="str">
+        <v>Fixed Assets</v>
+      </c>
+      <c r="D38" t="str">
+        <v>Other fixed assets</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>120.01</v>
+      </c>
+      <c r="B39" t="str">
+        <v>Vehicilos y Motos</v>
+      </c>
+      <c r="C39" t="str">
+        <v>Fixed Assets</v>
+      </c>
+      <c r="D39" t="str">
+        <v>Other fixed assets</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>120.02</v>
+      </c>
+      <c r="B40" t="str">
+        <v>Mobiliario y Equipo de Oficina</v>
+      </c>
+      <c r="C40" t="str">
+        <v>Fixed Assets</v>
+      </c>
+      <c r="D40" t="str">
+        <v>Other fixed assets</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>120.03</v>
+      </c>
+      <c r="B41" t="str">
+        <v>Equipo de Laboratorio</v>
+      </c>
+      <c r="C41" t="str">
+        <v>Fixed Assets</v>
+      </c>
+      <c r="D41" t="str">
+        <v>Other fixed assets</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>121</v>
+      </c>
+      <c r="B42" t="str">
+        <v>DEPRECIACION ACUMULADA</v>
+      </c>
+      <c r="C42" t="str">
+        <v>Fixed Assets</v>
+      </c>
+      <c r="D42" t="str">
+        <v>Accumulated Depreciation</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>121.01</v>
+      </c>
+      <c r="B43" t="str">
+        <v>Depreciación Vehicilos y Motos</v>
+      </c>
+      <c r="C43" t="str">
+        <v>Fixed Assets</v>
+      </c>
+      <c r="D43" t="str">
+        <v>Accumulated Depreciation</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>121.02</v>
+      </c>
+      <c r="B44" t="str">
+        <v>Depreciación Mobiliario y Equipo de Oficina</v>
+      </c>
+      <c r="C44" t="str">
+        <v>Fixed Assets</v>
+      </c>
+      <c r="D44" t="str">
+        <v>Accumulated Depreciation</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>121.03</v>
+      </c>
+      <c r="B45" t="str">
+        <v>Depreciación Equipo de Laboratorio</v>
+      </c>
+      <c r="C45" t="str">
+        <v>Fixed Assets</v>
+      </c>
+      <c r="D45" t="str">
+        <v>Accumulated Depreciation</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>3012</v>
+      </c>
+      <c r="B46" t="str">
+        <v>Cuentas por Pagar</v>
+      </c>
+      <c r="C46" t="str">
+        <v>Accounts payable (A/P)</v>
+      </c>
+      <c r="D46" t="str">
+        <v>Accounts Payable (A/P)</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>200</v>
+      </c>
+      <c r="B47" t="str">
+        <v>ACREEDORES DIVERSOS</v>
+      </c>
+      <c r="C47" t="str">
+        <v>Non-current liabilities</v>
+      </c>
+      <c r="D47" t="str">
+        <v>Other non-current liabilities</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>201</v>
+      </c>
+      <c r="B48" t="str">
+        <v>RETENCIONES POR PAGAR</v>
+      </c>
+      <c r="C48" t="str">
+        <v>Non-current liabilities</v>
+      </c>
+      <c r="D48" t="str">
+        <v>Other non-current liabilities</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>201.01</v>
+      </c>
+      <c r="B49" t="str">
+        <v>RETENCIONES POR PAGAR:Benef. y Prest. Lab. de Empleados</v>
+      </c>
+      <c r="C49" t="str">
+        <v>Non-current liabilities</v>
+      </c>
+      <c r="D49" t="str">
+        <v>Other non-current liabilities</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>201.02</v>
+      </c>
+      <c r="B50" t="str">
+        <v>RETENCIONES POR PAGAR:Fondos por Ejecutar</v>
+      </c>
+      <c r="C50" t="str">
+        <v>Non-current liabilities</v>
+      </c>
+      <c r="D50" t="str">
+        <v>Other non-current liabilities</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>201.03</v>
+      </c>
+      <c r="B51" t="str">
+        <v>RETENCIONES POR PAGAR:Transferencias no Ejecutadas</v>
+      </c>
+      <c r="C51" t="str">
+        <v>Non-current liabilities</v>
+      </c>
+      <c r="D51" t="str">
+        <v>Other non-current liabilities</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>201.04</v>
+      </c>
+      <c r="B52" t="str">
+        <v>RETENCIONES POR PAGAR:Seguros por Pagar</v>
+      </c>
+      <c r="C52" t="str">
+        <v>Non-current liabilities</v>
+      </c>
+      <c r="D52" t="str">
+        <v>Other non-current liabilities</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>300</v>
+      </c>
+      <c r="B53" t="str">
+        <v>PATRIMONIO</v>
+      </c>
+      <c r="C53" t="str">
+        <v>Owner's equity</v>
+      </c>
+      <c r="D53" t="str">
+        <v>Owner's Equity</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>300.01</v>
+      </c>
+      <c r="B54" t="str">
+        <v>Donaciones de Equipos</v>
+      </c>
+      <c r="C54" t="str">
+        <v>Owner's equity</v>
+      </c>
+      <c r="D54" t="str">
+        <v>Owner's Equity</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>300.02</v>
+      </c>
+      <c r="B55" t="str">
+        <v>Periodos Anteriores</v>
+      </c>
+      <c r="C55" t="str">
+        <v>Owner's equity</v>
+      </c>
+      <c r="D55" t="str">
+        <v>Owner's Equity</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>300.03</v>
+      </c>
+      <c r="B56" t="str">
+        <v>Presente Periodo</v>
+      </c>
+      <c r="C56" t="str">
+        <v>Owner's equity</v>
+      </c>
+      <c r="D56" t="str">
+        <v>Owner's Equity</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>300.04</v>
+      </c>
+      <c r="B57" t="str">
+        <v>Donaciones Recibidas</v>
+      </c>
+      <c r="C57" t="str">
+        <v>Owner's equity</v>
+      </c>
+      <c r="D57" t="str">
+        <v>Owner's Equity</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>3005</v>
+      </c>
+      <c r="B58" t="str">
+        <v>Opening Balance Equity (Equilibrio de apertura)</v>
+      </c>
+      <c r="C58" t="str">
+        <v>Owner's equity</v>
+      </c>
+      <c r="D58" t="str">
+        <v>Owner's Equity</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>3001</v>
+      </c>
+      <c r="B59" t="str">
+        <v>Services (Servicos)</v>
+      </c>
+      <c r="C59" t="str">
+        <v>Income</v>
+      </c>
+      <c r="D59" t="str">
+        <v>Revenue - General</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>3002</v>
+      </c>
+      <c r="B60" t="str">
+        <v>Uncategorized Income (Ingresos no categorizados)</v>
+      </c>
+      <c r="C60" t="str">
+        <v>Income</v>
+      </c>
+      <c r="D60" t="str">
+        <v>Revenue - General</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>3006</v>
+      </c>
+      <c r="B61" t="str">
+        <v>Billable Expense Income</v>
+      </c>
+      <c r="C61" t="str">
+        <v>Income</v>
+      </c>
+      <c r="D61" t="str">
+        <v>Revenue - General</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>3007</v>
+      </c>
+      <c r="B62" t="str">
+        <v>Sales of Product Income</v>
+      </c>
+      <c r="C62" t="str">
+        <v>Income</v>
+      </c>
+      <c r="D62" t="str">
+        <v>Revenue - General</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>3008</v>
+      </c>
+      <c r="B63" t="str">
+        <v>Unapplied Cash Payment Income</v>
+      </c>
+      <c r="C63" t="str">
+        <v>Income</v>
+      </c>
+      <c r="D63" t="str">
+        <v>Revenue - General</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>3014</v>
+      </c>
+      <c r="B64" t="str">
+        <v>Discounts given</v>
+      </c>
+      <c r="C64" t="str">
+        <v>Income</v>
+      </c>
+      <c r="D64" t="str">
+        <v>Revenue - General</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>3015</v>
+      </c>
+      <c r="B65" t="str">
+        <v>Shipping Income</v>
+      </c>
+      <c r="C65" t="str">
+        <v>Income</v>
+      </c>
+      <c r="D65" t="str">
+        <v>Revenue - General</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>400</v>
+      </c>
+      <c r="B66" t="str">
+        <v>INGRESOS DEL PROGRAMA</v>
+      </c>
+      <c r="C66" t="str">
+        <v>Income</v>
+      </c>
+      <c r="D66" t="str">
+        <v>Revenue - General</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>400.01</v>
+      </c>
+      <c r="B67" t="str">
+        <v>Fondos p/Ejecucion Proyectos</v>
+      </c>
+      <c r="C67" t="str">
+        <v>Income</v>
+      </c>
+      <c r="D67" t="str">
+        <v>Revenue - General</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>400.02</v>
+      </c>
+      <c r="B68" t="str">
+        <v>Fondos p/Asistencia Tecnica y Capac.</v>
+      </c>
+      <c r="C68" t="str">
+        <v>Income</v>
+      </c>
+      <c r="D68" t="str">
+        <v>Revenue - General</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>400.03</v>
+      </c>
+      <c r="B69" t="str">
+        <v>Fondos p/Presupuesto Aprobado</v>
+      </c>
+      <c r="C69" t="str">
+        <v>Income</v>
+      </c>
+      <c r="D69" t="str">
+        <v>Revenue - General</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>400.04</v>
+      </c>
+      <c r="B70" t="str">
+        <v>Servicios - Asistencia Tecnica</v>
+      </c>
+      <c r="C70" t="str">
+        <v>Income</v>
+      </c>
+      <c r="D70" t="str">
+        <v>Revenue - General</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>400.05</v>
+      </c>
+      <c r="B71" t="str">
+        <v>Venta - Analsis de Agua</v>
+      </c>
+      <c r="C71" t="str">
+        <v>Income</v>
+      </c>
+      <c r="D71" t="str">
+        <v>Revenue - General</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>400.06</v>
+      </c>
+      <c r="B72" t="str">
+        <v>Venta - Cloro Tabletas</v>
+      </c>
+      <c r="C72" t="str">
+        <v>Income</v>
+      </c>
+      <c r="D72" t="str">
+        <v>Revenue - General</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>400.07</v>
+      </c>
+      <c r="B73" t="str">
+        <v>Venta - Cloro Granulado (en libras)</v>
+      </c>
+      <c r="C73" t="str">
+        <v>Income</v>
+      </c>
+      <c r="D73" t="str">
+        <v>Revenue - General</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>400.08</v>
+      </c>
+      <c r="B74" t="str">
+        <v>Venta - Cloradores</v>
+      </c>
+      <c r="C74" t="str">
+        <v>Income</v>
+      </c>
+      <c r="D74" t="str">
+        <v>Revenue - General</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>400.09</v>
+      </c>
+      <c r="B75" t="str">
+        <v>Venta - Fitros</v>
+      </c>
+      <c r="C75" t="str">
+        <v>Income</v>
+      </c>
+      <c r="D75" t="str">
+        <v>Revenue - General</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>400.1</v>
+      </c>
+      <c r="B76" t="str">
+        <v>Venta - Reactivos</v>
+      </c>
+      <c r="C76" t="str">
+        <v>Income</v>
+      </c>
+      <c r="D76" t="str">
+        <v>Revenue - General</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>400.11</v>
+      </c>
+      <c r="B77" t="str">
+        <v>Venta - Kit Cloro</v>
+      </c>
+      <c r="C77" t="str">
+        <v>Income</v>
+      </c>
+      <c r="D77" t="str">
+        <v>Revenue - General</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>400.12</v>
+      </c>
+      <c r="B78" t="str">
+        <v>Venta - Accesorios y Otras Ingresos</v>
+      </c>
+      <c r="C78" t="str">
+        <v>Income</v>
+      </c>
+      <c r="D78" t="str">
+        <v>Revenue - General</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>400.13</v>
+      </c>
+      <c r="B79" t="str">
+        <v>Fondos p/Interes de Prestamos</v>
+      </c>
+      <c r="C79" t="str">
+        <v>Income</v>
+      </c>
+      <c r="D79" t="str">
+        <v>Revenue - General</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>400.14</v>
+      </c>
+      <c r="B80" t="str">
+        <v>Fondos p/Interes de cuentas Bancarias</v>
+      </c>
+      <c r="C80" t="str">
+        <v>Income</v>
+      </c>
+      <c r="D80" t="str">
+        <v>Revenue - General</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>400.15</v>
+      </c>
+      <c r="B81" t="str">
+        <v>Fondos Misceláneos</v>
+      </c>
+      <c r="C81" t="str">
+        <v>Income</v>
+      </c>
+      <c r="D81" t="str">
+        <v>Revenue - General</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>400.16</v>
+      </c>
+      <c r="B82" t="str">
+        <v>INGRESOS DEL PROGRAMA:Ajuste por mantenimiento y Valor</v>
+      </c>
+      <c r="C82" t="str">
+        <v>Income</v>
+      </c>
+      <c r="D82" t="str">
+        <v>Revenue - General</v>
+      </c>
+      <c r="E82" t="str">
+        <v>Ajuste mantenimiento cuenta de Dólar</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>500</v>
+      </c>
+      <c r="B83" t="str">
+        <v>Cost of Goods Sold</v>
+      </c>
+      <c r="C83" t="str">
+        <v>Cost of sales</v>
+      </c>
+      <c r="D83" t="str">
+        <v>Cost of Sales</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>500.01</v>
+      </c>
+      <c r="B84" t="str">
+        <v>Insumos Analsis de Agua</v>
+      </c>
+      <c r="C84" t="str">
+        <v>Cost of sales</v>
+      </c>
+      <c r="D84" t="str">
+        <v>Cost of Sales</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>500.02</v>
+      </c>
+      <c r="B85" t="str">
+        <v>Insumos Cloro Tabletas</v>
+      </c>
+      <c r="C85" t="str">
+        <v>Cost of sales</v>
+      </c>
+      <c r="D85" t="str">
+        <v>Cost of Sales</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>500.03</v>
+      </c>
+      <c r="B86" t="str">
+        <v>Insumos Cloro Granulado (en libras)</v>
+      </c>
+      <c r="C86" t="str">
+        <v>Cost of sales</v>
+      </c>
+      <c r="D86" t="str">
+        <v>Cost of Sales</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>500.04</v>
+      </c>
+      <c r="B87" t="str">
+        <v>Insumos Cloradores</v>
+      </c>
+      <c r="C87" t="str">
+        <v>Cost of sales</v>
+      </c>
+      <c r="D87" t="str">
+        <v>Cost of Sales</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>500.05</v>
+      </c>
+      <c r="B88" t="str">
+        <v>Insumos Fitros</v>
+      </c>
+      <c r="C88" t="str">
+        <v>Cost of sales</v>
+      </c>
+      <c r="D88" t="str">
+        <v>Cost of Sales</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>500.06</v>
+      </c>
+      <c r="B89" t="str">
+        <v>Insumos Reactivos</v>
+      </c>
+      <c r="C89" t="str">
+        <v>Cost of sales</v>
+      </c>
+      <c r="D89" t="str">
+        <v>Cost of Sales</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>500.07</v>
+      </c>
+      <c r="B90" t="str">
+        <v>Insumos Accesorio y Otros</v>
+      </c>
+      <c r="C90" t="str">
+        <v>Cost of sales</v>
+      </c>
+      <c r="D90" t="str">
+        <v>Cost of Sales</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>500.08</v>
+      </c>
+      <c r="B91" t="str">
+        <v>Insumos Accesorios y Otras</v>
+      </c>
+      <c r="C91" t="str">
+        <v>Cost of sales</v>
+      </c>
+      <c r="D91" t="str">
+        <v>Cost of Sales</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>3003</v>
+      </c>
+      <c r="B92" t="str">
+        <v>Uncategorized Expense(Gastos no categorizados)</v>
+      </c>
+      <c r="C92" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D92" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>3009</v>
+      </c>
+      <c r="B93" t="str">
+        <v>Purchases</v>
+      </c>
+      <c r="C93" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D93" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>3013</v>
+      </c>
+      <c r="B94" t="str">
+        <v>Unapplied Cash Bill Payment Expense</v>
+      </c>
+      <c r="C94" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D94" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>600</v>
+      </c>
+      <c r="B95" t="str">
+        <v>SUELDOS Y SALARIOS</v>
+      </c>
+      <c r="C95" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D95" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>600.01</v>
+      </c>
+      <c r="B96" t="str">
+        <v>Coordinacion</v>
+      </c>
+      <c r="C96" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D96" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>600.02</v>
+      </c>
+      <c r="B97" t="str">
+        <v>Contabilidad/Admin</v>
+      </c>
+      <c r="C97" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D97" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>600.03</v>
+      </c>
+      <c r="B98" t="str">
+        <v>Circuit Riders</v>
+      </c>
+      <c r="C98" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D98" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>600.031</v>
+      </c>
+      <c r="B99" t="str">
+        <v>Tecnicos de Carbono</v>
+      </c>
+      <c r="C99" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D99" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>600.04</v>
+      </c>
+      <c r="B100" t="str">
+        <v>Laboratorio y Salud</v>
+      </c>
+      <c r="C100" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D100" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>600.05</v>
+      </c>
+      <c r="B101" t="str">
+        <v>Honorarios Prof/Contratista</v>
+      </c>
+      <c r="C101" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D101" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102">
+        <v>600.06</v>
+      </c>
+      <c r="B102" t="str">
+        <v>Bonus Empleados</v>
+      </c>
+      <c r="C102" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D102" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103">
+        <v>600.07</v>
+      </c>
+      <c r="B103" t="str">
+        <v>Pago Terceavo Mes</v>
+      </c>
+      <c r="C103" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D103" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104">
+        <v>600.08</v>
+      </c>
+      <c r="B104" t="str">
+        <v>Pago Catorceavo Mes</v>
+      </c>
+      <c r="C104" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D104" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105">
+        <v>600.09</v>
+      </c>
+      <c r="B105" t="str">
+        <v>Cotizacion al I.H.S.S.</v>
+      </c>
+      <c r="C105" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D105" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106">
+        <v>600.1</v>
+      </c>
+      <c r="B106" t="str">
+        <v>Seguro de Vida Empleados</v>
+      </c>
+      <c r="C106" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D106" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107">
+        <v>600.11</v>
+      </c>
+      <c r="B107" t="str">
+        <v>Proyeccion Social</v>
+      </c>
+      <c r="C107" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D107" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108">
+        <v>600.12</v>
+      </c>
+      <c r="B108" t="str">
+        <v>Prestaciones Liquidades</v>
+      </c>
+      <c r="C108" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D108" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109">
+        <v>610</v>
+      </c>
+      <c r="B109" t="str">
+        <v>GASTOS DE PROYECTOS</v>
+      </c>
+      <c r="C109" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D109" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110">
+        <v>610.01</v>
+      </c>
+      <c r="B110" t="str">
+        <v>Gastos para Ejecusion de Proyectos</v>
+      </c>
+      <c r="C110" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D110" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111">
+        <v>610.02</v>
+      </c>
+      <c r="B111" t="str">
+        <v>Programa de Salud e Higiene</v>
+      </c>
+      <c r="C111" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D111" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112">
+        <v>620</v>
+      </c>
+      <c r="B112" t="str">
+        <v>GASTOS DEL OFICINA</v>
+      </c>
+      <c r="C112" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D112" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113">
+        <v>620.01</v>
+      </c>
+      <c r="B113" t="str">
+        <v>Aquiliar de Local</v>
+      </c>
+      <c r="C113" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D113" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114">
+        <v>620.02</v>
+      </c>
+      <c r="B114" t="str">
+        <v>Mantienmento de Equipo de Oficina</v>
+      </c>
+      <c r="C114" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D114" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115">
+        <v>620.03</v>
+      </c>
+      <c r="B115" t="str">
+        <v>Impuestos Sobre la Renta</v>
+      </c>
+      <c r="C115" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D115" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116">
+        <v>620.04</v>
+      </c>
+      <c r="B116" t="str">
+        <v>Papeleria y Utiles de Oficina</v>
+      </c>
+      <c r="C116" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D116" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117">
+        <v>620.05</v>
+      </c>
+      <c r="B117" t="str">
+        <v>Servicios Publicos</v>
+      </c>
+      <c r="C117" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D117" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118">
+        <v>620.06</v>
+      </c>
+      <c r="B118" t="str">
+        <v>Propaganda y Publicidad</v>
+      </c>
+      <c r="C118" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D118" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119">
+        <v>620.07</v>
+      </c>
+      <c r="B119" t="str">
+        <v>Pagina Web</v>
+      </c>
+      <c r="C119" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D119" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120">
+        <v>620.08</v>
+      </c>
+      <c r="B120" t="str">
+        <v>Otros Gastos</v>
+      </c>
+      <c r="C120" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D120" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121">
+        <v>630</v>
+      </c>
+      <c r="B121" t="str">
+        <v>GASTOS DE TRANSPORTE</v>
+      </c>
+      <c r="C121" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D121" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122">
+        <v>630.01</v>
+      </c>
+      <c r="B122" t="str">
+        <v>Gastos por Transporte</v>
+      </c>
+      <c r="C122" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D122" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123">
+        <v>630.02</v>
+      </c>
+      <c r="B123" t="str">
+        <v>Repuestos y Mantienmento de Vehicilos</v>
+      </c>
+      <c r="C123" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D123" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124">
+        <v>630.03</v>
+      </c>
+      <c r="B124" t="str">
+        <v>Gastos de Viajes</v>
+      </c>
+      <c r="C124" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D124" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125">
+        <v>630.04</v>
+      </c>
+      <c r="B125" t="str">
+        <v>Gastos de Capacitiacion</v>
+      </c>
+      <c r="C125" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D125" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126">
+        <v>630.05</v>
+      </c>
+      <c r="B126" t="str">
+        <v>Combustibles y Lubricantes</v>
+      </c>
+      <c r="C126" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D126" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127">
+        <v>630.06</v>
+      </c>
+      <c r="B127" t="str">
+        <v>Matricula de Vehiculos</v>
+      </c>
+      <c r="C127" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D127" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128">
+        <v>630.07</v>
+      </c>
+      <c r="B128" t="str">
+        <v>Gastos de Viaticos</v>
+      </c>
+      <c r="C128" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D128" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+      <c r="E128" t="str">
+        <v>Gastos de viaticos, alimentación, etc.</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129">
+        <v>630.08</v>
+      </c>
+      <c r="B129" t="str">
+        <v>Alquiler de Motocicleta</v>
+      </c>
+      <c r="C129" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D129" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130">
+        <v>640</v>
+      </c>
+      <c r="B130" t="str">
+        <v>GASTOS BANCARIO</v>
+      </c>
+      <c r="C130" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D130" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131">
+        <v>640.01</v>
+      </c>
+      <c r="B131" t="str">
+        <v>Depreciaciones</v>
+      </c>
+      <c r="C131" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D131" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132">
+        <v>640.02</v>
+      </c>
+      <c r="B132" t="str">
+        <v>Cargo por Chequera</v>
+      </c>
+      <c r="C132" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D132" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133">
+        <v>640.03</v>
+      </c>
+      <c r="B133" t="str">
+        <v>Tasa de Seguridad</v>
+      </c>
+      <c r="C133" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D133" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134">
+        <v>640.04</v>
+      </c>
+      <c r="B134" t="str">
+        <v>Comision Bancaria</v>
+      </c>
+      <c r="C134" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D134" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135">
+        <v>640.05</v>
+      </c>
+      <c r="B135" t="str">
+        <v>Perdida por cuentas incobrables</v>
+      </c>
+      <c r="C135" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D135" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136">
+        <v>640.06</v>
+      </c>
+      <c r="B136" t="str">
+        <v>Gasto Diferencial Cambiario</v>
+      </c>
+      <c r="C136" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D136" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+      <c r="E136" t="str">
+        <v>Ajuste Tasa de Cambio</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137">
+        <v>650</v>
+      </c>
+      <c r="B137" t="str">
+        <v>Reservas</v>
+      </c>
+      <c r="C137" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D137" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+      <c r="E137" t="str">
+        <v>Fondos de reservas de años siguientes</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138">
+        <v>650.01</v>
+      </c>
+      <c r="B138" t="str">
+        <v>Reservas:Reservas</v>
+      </c>
+      <c r="C138" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D138" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139">
+        <v>660</v>
+      </c>
+      <c r="B139" t="str">
+        <v>SERVICIO FORESTAL (CUENTA PRINCIPAL)</v>
+      </c>
+      <c r="C139" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D139" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140">
+        <v>660.01</v>
+      </c>
+      <c r="B140" t="str">
+        <v>SERVICIO FORESTAL (CUENTA PRINCIPAL):Servicio Forestal- Equipo</v>
+      </c>
+      <c r="C140" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D140" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141">
+        <v>660.02</v>
+      </c>
+      <c r="B141" t="str">
+        <v>SERVICIO FORESTAL (CUENTA PRINCIPAL):Servicio Forestal- Suministros</v>
+      </c>
+      <c r="C141" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D141" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142">
+        <v>660.03</v>
+      </c>
+      <c r="B142" t="str">
+        <v>SERVICIO FORESTAL (CUENTA PRINCIPAL):Servicio Forestal- Contractual</v>
+      </c>
+      <c r="C142" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D142" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143">
+        <v>660.04</v>
+      </c>
+      <c r="B143" t="str">
+        <v>SERVICIO FORESTAL (CUENTA PRINCIPAL):Servicio Forestal- Otro</v>
+      </c>
+      <c r="C143" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D143" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144">
+        <v>660.05</v>
+      </c>
+      <c r="B144" t="str">
+        <v>SERVICIO FORESTAL (CUENTA PRINCIPAL):Servicio Forestal- Personal</v>
+      </c>
+      <c r="C144" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D144" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145">
+        <v>660.06</v>
+      </c>
+      <c r="B145" t="str">
+        <v>SERVICIO FORESTAL (CUENTA PRINCIPAL):Servicio Forestal- Costos Indirectos</v>
+      </c>
+      <c r="C145" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D145" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146">
+        <v>660.07</v>
+      </c>
+      <c r="B146" t="str">
+        <v>SERVICIO FORESTAL (CUENTA PRINCIPAL):Servicio Forestal- Transporte</v>
+      </c>
+      <c r="C146" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D146" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147">
+        <v>3010</v>
+      </c>
+      <c r="B147" t="str">
+        <v>Other Miscellaneous Expense</v>
+      </c>
+      <c r="C147" t="str">
+        <v>Other Expense</v>
+      </c>
+      <c r="D147" t="str">
+        <v>Other Miscellaneous Expense</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148">
+        <v>3016</v>
+      </c>
+      <c r="B148" t="str">
+        <v>Reconciliation Discrepancies</v>
+      </c>
+      <c r="C148" t="str">
+        <v>Other Expense</v>
+      </c>
+      <c r="D148" t="str">
+        <v>Other Miscellaneous Expense</v>
+      </c>
+    </row>
+  </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E148"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/server/data/coa/modifiedCoa.xlsx
+++ b/server/data/coa/modifiedCoa.xlsx
@@ -32,8 +32,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ _€"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -397,13 +398,2119 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:E148"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Account No.</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Account</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Type</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Detail type</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Description</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>100</v>
+      </c>
+      <c r="B2" t="str">
+        <v>CAJA</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Cash and cash equivalents</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Cash and cash equivalents</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>100.01</v>
+      </c>
+      <c r="B3" t="str">
+        <v>CAJA:Caja General</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Cash and cash equivalents</v>
+      </c>
+      <c r="D3" t="str">
+        <v>Cash and cash equivalents</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>100.02</v>
+      </c>
+      <c r="B4" t="str">
+        <v>CAJA:Caja Chica</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Cash and cash equivalents</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Cash and cash equivalents</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>101</v>
+      </c>
+      <c r="B5" t="str">
+        <v>BANCOS</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Cash and cash equivalents</v>
+      </c>
+      <c r="D5" t="str">
+        <v>Cash and cash equivalents</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>101.01</v>
+      </c>
+      <c r="B6" t="str">
+        <v>BANCOS:(CERRADO)Cta. Cheq. 11-302-001083-2</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Cash and cash equivalents</v>
+      </c>
+      <c r="D6" t="str">
+        <v>Cash and cash equivalents</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>101.02</v>
+      </c>
+      <c r="B7" t="str">
+        <v>BANCOS:(CERRADO)Cta. Cheq. 11-302-001077-8</v>
+      </c>
+      <c r="C7" t="str">
+        <v>Cash and cash equivalents</v>
+      </c>
+      <c r="D7" t="str">
+        <v>Cash and cash equivalents</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>101.03</v>
+      </c>
+      <c r="B8" t="str">
+        <v>BANCOS:(CERRADO)Cta. Cheq. 11-302-001084-0</v>
+      </c>
+      <c r="C8" t="str">
+        <v>Cash and cash equivalents</v>
+      </c>
+      <c r="D8" t="str">
+        <v>Cash and cash equivalents</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>101.04</v>
+      </c>
+      <c r="B9" t="str">
+        <v>BANCOS:(CERRADO)Cta. Ahorro 21-302-021225-3</v>
+      </c>
+      <c r="C9" t="str">
+        <v>Cash and cash equivalents</v>
+      </c>
+      <c r="D9" t="str">
+        <v>Cash and cash equivalents</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>101.05</v>
+      </c>
+      <c r="B10" t="str">
+        <v>BANCOS:(CERRADO)Cta. Ahorro 21-302-021274-1</v>
+      </c>
+      <c r="C10" t="str">
+        <v>Cash and cash equivalents</v>
+      </c>
+      <c r="D10" t="str">
+        <v>Cash and cash equivalents</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>101.06</v>
+      </c>
+      <c r="B11" t="str">
+        <v>BANCOS:(CERRADO)Cta. Ahorro USD 22-302-000859-9</v>
+      </c>
+      <c r="C11" t="str">
+        <v>Cash and cash equivalents</v>
+      </c>
+      <c r="D11" t="str">
+        <v>Cash and cash equivalents</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>101.07</v>
+      </c>
+      <c r="B12" t="str">
+        <v>BANCOS:Cta.Gastos Operat-21-302-0332470</v>
+      </c>
+      <c r="C12" t="str">
+        <v>Cash and cash equivalents</v>
+      </c>
+      <c r="D12" t="str">
+        <v>Cash and cash equivalents</v>
+      </c>
+      <c r="E12" t="str">
+        <v>Gastos Operativos</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>101.08</v>
+      </c>
+      <c r="B13" t="str">
+        <v>BANCOS:Cta.Otros Ingresos-21-302-0332488</v>
+      </c>
+      <c r="C13" t="str">
+        <v>Cash and cash equivalents</v>
+      </c>
+      <c r="D13" t="str">
+        <v>Cash and cash equivalents</v>
+      </c>
+      <c r="E13" t="str">
+        <v>Otros Ingresos</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>101.09</v>
+      </c>
+      <c r="B14" t="str">
+        <v>BANCOS:Cta.BeneficiosLab-21-302-0332496</v>
+      </c>
+      <c r="C14" t="str">
+        <v>Cash and cash equivalents</v>
+      </c>
+      <c r="D14" t="str">
+        <v>Cash and cash equivalents</v>
+      </c>
+      <c r="E14" t="str">
+        <v>Beneficios Laborales</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>101.1</v>
+      </c>
+      <c r="B15" t="str">
+        <v>BANCOS:Cta.Transf-USD-22-302-0013169</v>
+      </c>
+      <c r="C15" t="str">
+        <v>Cash and cash equivalents</v>
+      </c>
+      <c r="D15" t="str">
+        <v>Cash and cash equivalents</v>
+      </c>
+      <c r="E15" t="str">
+        <v>Transferencias de EOS en USD</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>101.11</v>
+      </c>
+      <c r="B16" t="str">
+        <v>BANCOS:Cta. Ahorro-USFS 21-302-039430-0</v>
+      </c>
+      <c r="C16" t="str">
+        <v>Cash and cash equivalents</v>
+      </c>
+      <c r="D16" t="str">
+        <v>Cash and cash equivalents</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>103.01</v>
+      </c>
+      <c r="B17" t="str">
+        <v>CUENTAS POR COBRAR</v>
+      </c>
+      <c r="C17" t="str">
+        <v>Accounts receivable (A/R)</v>
+      </c>
+      <c r="D17" t="str">
+        <v>Accounts receivable (A/R)</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>103.02</v>
+      </c>
+      <c r="B18" t="str">
+        <v>CUENTAS POR COBRAR:Cuentas Incobrales</v>
+      </c>
+      <c r="C18" t="str">
+        <v>Accounts receivable (A/R)</v>
+      </c>
+      <c r="D18" t="str">
+        <v>Accounts receivable (A/R)</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>102</v>
+      </c>
+      <c r="B19" t="str">
+        <v>ANTICIPOS</v>
+      </c>
+      <c r="C19" t="str">
+        <v>Non-current assets</v>
+      </c>
+      <c r="D19" t="str">
+        <v>Other non-current assets</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>102.01</v>
+      </c>
+      <c r="B20" t="str">
+        <v>ANTICIPOS:Anticipos</v>
+      </c>
+      <c r="C20" t="str">
+        <v>Non-current assets</v>
+      </c>
+      <c r="D20" t="str">
+        <v>Other non-current assets</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>102.02</v>
+      </c>
+      <c r="B21" t="str">
+        <v>ANTICIPOS:Impuestos sobre la Renta (Pago a la cuenta)</v>
+      </c>
+      <c r="C21" t="str">
+        <v>Non-current assets</v>
+      </c>
+      <c r="D21" t="str">
+        <v>Other non-current assets</v>
+      </c>
+      <c r="E21" t="str">
+        <v>Pago a ls cuenta</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>102.03</v>
+      </c>
+      <c r="B22" t="str">
+        <v>ANTICIPOS:Impuestos sobre Ventas (Pagado)</v>
+      </c>
+      <c r="C22" t="str">
+        <v>Non-current assets</v>
+      </c>
+      <c r="D22" t="str">
+        <v>Other non-current assets</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>104</v>
+      </c>
+      <c r="B23" t="str">
+        <v>INVENTARIO</v>
+      </c>
+      <c r="C23" t="str">
+        <v>Non-current assets</v>
+      </c>
+      <c r="D23" t="str">
+        <v>Other non-current assets</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>104.01</v>
+      </c>
+      <c r="B24" t="str">
+        <v>INVENTARIO:Inventario - Analsis de Agua</v>
+      </c>
+      <c r="C24" t="str">
+        <v>Non-current assets</v>
+      </c>
+      <c r="D24" t="str">
+        <v>Other non-current assets</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>104.02</v>
+      </c>
+      <c r="B25" t="str">
+        <v>INVENTARIO:Inventario  - Cloro Tabletas</v>
+      </c>
+      <c r="C25" t="str">
+        <v>Non-current assets</v>
+      </c>
+      <c r="D25" t="str">
+        <v>Other non-current assets</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>104.03</v>
+      </c>
+      <c r="B26" t="str">
+        <v>INVENTARIO:Inventario - Cloro Granulado (en libras)</v>
+      </c>
+      <c r="C26" t="str">
+        <v>Non-current assets</v>
+      </c>
+      <c r="D26" t="str">
+        <v>Other non-current assets</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>104.04</v>
+      </c>
+      <c r="B27" t="str">
+        <v>INVENTARIO:Inventario - Cloradores</v>
+      </c>
+      <c r="C27" t="str">
+        <v>Non-current assets</v>
+      </c>
+      <c r="D27" t="str">
+        <v>Other non-current assets</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>104.05</v>
+      </c>
+      <c r="B28" t="str">
+        <v>INVENTARIO:Inventario - Fitros</v>
+      </c>
+      <c r="C28" t="str">
+        <v>Non-current assets</v>
+      </c>
+      <c r="D28" t="str">
+        <v>Other non-current assets</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>104.06</v>
+      </c>
+      <c r="B29" t="str">
+        <v>INVENTARIO:Inventario - Reactivos y Kit Cloro</v>
+      </c>
+      <c r="C29" t="str">
+        <v>Non-current assets</v>
+      </c>
+      <c r="D29" t="str">
+        <v>Other non-current assets</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>104.07</v>
+      </c>
+      <c r="B30" t="str">
+        <v>INVENTARIO:Inventario - Accesorios y Otras</v>
+      </c>
+      <c r="C30" t="str">
+        <v>Non-current assets</v>
+      </c>
+      <c r="D30" t="str">
+        <v>Other non-current assets</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>105</v>
+      </c>
+      <c r="B31" t="str">
+        <v>OTROS ACTIVOS CIRCULANTES</v>
+      </c>
+      <c r="C31" t="str">
+        <v>Non-current assets</v>
+      </c>
+      <c r="D31" t="str">
+        <v>Other non-current assets</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>105.01</v>
+      </c>
+      <c r="B32" t="str">
+        <v>Prestamos a Empleados</v>
+      </c>
+      <c r="C32" t="str">
+        <v>Non-current assets</v>
+      </c>
+      <c r="D32" t="str">
+        <v>Other non-current assets</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>105.02</v>
+      </c>
+      <c r="B33" t="str">
+        <v>Deodores Varios</v>
+      </c>
+      <c r="C33" t="str">
+        <v>Non-current assets</v>
+      </c>
+      <c r="D33" t="str">
+        <v>Other non-current assets</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>105.03</v>
+      </c>
+      <c r="B34" t="str">
+        <v>OTROS ACTIVOS CIRCULANTES:Prestamo EOS</v>
+      </c>
+      <c r="C34" t="str">
+        <v>Non-current assets</v>
+      </c>
+      <c r="D34" t="str">
+        <v>Other non-current assets</v>
+      </c>
+      <c r="E34" t="str">
+        <v>Prestamo Motocicleta</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>3004</v>
+      </c>
+      <c r="B35" t="str">
+        <v>Uncategorized Asset (Activo sin categorizado)</v>
+      </c>
+      <c r="C35" t="str">
+        <v>Non-current assets</v>
+      </c>
+      <c r="D35" t="str">
+        <v>Other non-current assets</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>3011</v>
+      </c>
+      <c r="B36" t="str">
+        <v>Undeposited Funds</v>
+      </c>
+      <c r="C36" t="str">
+        <v>Non-current assets</v>
+      </c>
+      <c r="D36" t="str">
+        <v>Other non-current assets</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>8965</v>
+      </c>
+      <c r="B37" t="str">
+        <v>Inventory Asset</v>
+      </c>
+      <c r="C37" t="str">
+        <v>Non-current assets</v>
+      </c>
+      <c r="D37" t="str">
+        <v>Other non-current assets</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>120</v>
+      </c>
+      <c r="B38" t="str">
+        <v>MOBILIARIO Y EQUIPO</v>
+      </c>
+      <c r="C38" t="str">
+        <v>Fixed Assets</v>
+      </c>
+      <c r="D38" t="str">
+        <v>Other fixed assets</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>120.01</v>
+      </c>
+      <c r="B39" t="str">
+        <v>Vehicilos y Motos</v>
+      </c>
+      <c r="C39" t="str">
+        <v>Fixed Assets</v>
+      </c>
+      <c r="D39" t="str">
+        <v>Other fixed assets</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>120.02</v>
+      </c>
+      <c r="B40" t="str">
+        <v>Mobiliario y Equipo de Oficina</v>
+      </c>
+      <c r="C40" t="str">
+        <v>Fixed Assets</v>
+      </c>
+      <c r="D40" t="str">
+        <v>Other fixed assets</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>120.03</v>
+      </c>
+      <c r="B41" t="str">
+        <v>Equipo de Laboratorio</v>
+      </c>
+      <c r="C41" t="str">
+        <v>Fixed Assets</v>
+      </c>
+      <c r="D41" t="str">
+        <v>Other fixed assets</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>121</v>
+      </c>
+      <c r="B42" t="str">
+        <v>DEPRECIACION ACUMULADA</v>
+      </c>
+      <c r="C42" t="str">
+        <v>Fixed Assets</v>
+      </c>
+      <c r="D42" t="str">
+        <v>Accumulated Depreciation</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>121.01</v>
+      </c>
+      <c r="B43" t="str">
+        <v>Depreciación Vehicilos y Motos</v>
+      </c>
+      <c r="C43" t="str">
+        <v>Fixed Assets</v>
+      </c>
+      <c r="D43" t="str">
+        <v>Accumulated Depreciation</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>121.02</v>
+      </c>
+      <c r="B44" t="str">
+        <v>Depreciación Mobiliario y Equipo de Oficina</v>
+      </c>
+      <c r="C44" t="str">
+        <v>Fixed Assets</v>
+      </c>
+      <c r="D44" t="str">
+        <v>Accumulated Depreciation</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>121.03</v>
+      </c>
+      <c r="B45" t="str">
+        <v>Depreciación Equipo de Laboratorio</v>
+      </c>
+      <c r="C45" t="str">
+        <v>Fixed Assets</v>
+      </c>
+      <c r="D45" t="str">
+        <v>Accumulated Depreciation</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>3012</v>
+      </c>
+      <c r="B46" t="str">
+        <v>Cuentas por Pagar</v>
+      </c>
+      <c r="C46" t="str">
+        <v>Accounts payable (A/P)</v>
+      </c>
+      <c r="D46" t="str">
+        <v>Accounts Payable (A/P)</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>200</v>
+      </c>
+      <c r="B47" t="str">
+        <v>ACREEDORES DIVERSOS</v>
+      </c>
+      <c r="C47" t="str">
+        <v>Non-current liabilities</v>
+      </c>
+      <c r="D47" t="str">
+        <v>Other non-current liabilities</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>201</v>
+      </c>
+      <c r="B48" t="str">
+        <v>RETENCIONES POR PAGAR</v>
+      </c>
+      <c r="C48" t="str">
+        <v>Non-current liabilities</v>
+      </c>
+      <c r="D48" t="str">
+        <v>Other non-current liabilities</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>201.01</v>
+      </c>
+      <c r="B49" t="str">
+        <v>RETENCIONES POR PAGAR:Benef. y Prest. Lab. de Empleados</v>
+      </c>
+      <c r="C49" t="str">
+        <v>Non-current liabilities</v>
+      </c>
+      <c r="D49" t="str">
+        <v>Other non-current liabilities</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>201.02</v>
+      </c>
+      <c r="B50" t="str">
+        <v>RETENCIONES POR PAGAR:Fondos por Ejecutar</v>
+      </c>
+      <c r="C50" t="str">
+        <v>Non-current liabilities</v>
+      </c>
+      <c r="D50" t="str">
+        <v>Other non-current liabilities</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>201.03</v>
+      </c>
+      <c r="B51" t="str">
+        <v>RETENCIONES POR PAGAR:Transferencias no Ejecutadas</v>
+      </c>
+      <c r="C51" t="str">
+        <v>Non-current liabilities</v>
+      </c>
+      <c r="D51" t="str">
+        <v>Other non-current liabilities</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>201.04</v>
+      </c>
+      <c r="B52" t="str">
+        <v>RETENCIONES POR PAGAR:Seguros por Pagar</v>
+      </c>
+      <c r="C52" t="str">
+        <v>Non-current liabilities</v>
+      </c>
+      <c r="D52" t="str">
+        <v>Other non-current liabilities</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>300</v>
+      </c>
+      <c r="B53" t="str">
+        <v>PATRIMONIO</v>
+      </c>
+      <c r="C53" t="str">
+        <v>Owner's equity</v>
+      </c>
+      <c r="D53" t="str">
+        <v>Owner's Equity</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>300.01</v>
+      </c>
+      <c r="B54" t="str">
+        <v>Donaciones de Equipos</v>
+      </c>
+      <c r="C54" t="str">
+        <v>Owner's equity</v>
+      </c>
+      <c r="D54" t="str">
+        <v>Owner's Equity</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>300.02</v>
+      </c>
+      <c r="B55" t="str">
+        <v>Periodos Anteriores</v>
+      </c>
+      <c r="C55" t="str">
+        <v>Owner's equity</v>
+      </c>
+      <c r="D55" t="str">
+        <v>Owner's Equity</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>300.03</v>
+      </c>
+      <c r="B56" t="str">
+        <v>Presente Periodo</v>
+      </c>
+      <c r="C56" t="str">
+        <v>Owner's equity</v>
+      </c>
+      <c r="D56" t="str">
+        <v>Owner's Equity</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>300.04</v>
+      </c>
+      <c r="B57" t="str">
+        <v>Donaciones Recibidas</v>
+      </c>
+      <c r="C57" t="str">
+        <v>Owner's equity</v>
+      </c>
+      <c r="D57" t="str">
+        <v>Owner's Equity</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>3005</v>
+      </c>
+      <c r="B58" t="str">
+        <v>Opening Balance Equity (Equilibrio de apertura)</v>
+      </c>
+      <c r="C58" t="str">
+        <v>Owner's equity</v>
+      </c>
+      <c r="D58" t="str">
+        <v>Owner's Equity</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>3001</v>
+      </c>
+      <c r="B59" t="str">
+        <v>Services (Servicos)</v>
+      </c>
+      <c r="C59" t="str">
+        <v>Income</v>
+      </c>
+      <c r="D59" t="str">
+        <v>Revenue - General</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>3002</v>
+      </c>
+      <c r="B60" t="str">
+        <v>Uncategorized Income (Ingresos no categorizados)</v>
+      </c>
+      <c r="C60" t="str">
+        <v>Income</v>
+      </c>
+      <c r="D60" t="str">
+        <v>Revenue - General</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>3006</v>
+      </c>
+      <c r="B61" t="str">
+        <v>Billable Expense Income</v>
+      </c>
+      <c r="C61" t="str">
+        <v>Income</v>
+      </c>
+      <c r="D61" t="str">
+        <v>Revenue - General</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>3007</v>
+      </c>
+      <c r="B62" t="str">
+        <v>Sales of Product Income</v>
+      </c>
+      <c r="C62" t="str">
+        <v>Income</v>
+      </c>
+      <c r="D62" t="str">
+        <v>Revenue - General</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>3008</v>
+      </c>
+      <c r="B63" t="str">
+        <v>Unapplied Cash Payment Income</v>
+      </c>
+      <c r="C63" t="str">
+        <v>Income</v>
+      </c>
+      <c r="D63" t="str">
+        <v>Revenue - General</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>3014</v>
+      </c>
+      <c r="B64" t="str">
+        <v>Discounts given</v>
+      </c>
+      <c r="C64" t="str">
+        <v>Income</v>
+      </c>
+      <c r="D64" t="str">
+        <v>Revenue - General</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>3015</v>
+      </c>
+      <c r="B65" t="str">
+        <v>Shipping Income</v>
+      </c>
+      <c r="C65" t="str">
+        <v>Income</v>
+      </c>
+      <c r="D65" t="str">
+        <v>Revenue - General</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>400</v>
+      </c>
+      <c r="B66" t="str">
+        <v>INGRESOS DEL PROGRAMA</v>
+      </c>
+      <c r="C66" t="str">
+        <v>Income</v>
+      </c>
+      <c r="D66" t="str">
+        <v>Revenue - General</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>400.01</v>
+      </c>
+      <c r="B67" t="str">
+        <v>Fondos p/Ejecucion Proyectos</v>
+      </c>
+      <c r="C67" t="str">
+        <v>Income</v>
+      </c>
+      <c r="D67" t="str">
+        <v>Revenue - General</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>400.02</v>
+      </c>
+      <c r="B68" t="str">
+        <v>Fondos p/Asistencia Tecnica y Capac.</v>
+      </c>
+      <c r="C68" t="str">
+        <v>Income</v>
+      </c>
+      <c r="D68" t="str">
+        <v>Revenue - General</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>400.03</v>
+      </c>
+      <c r="B69" t="str">
+        <v>Fondos p/Presupuesto Aprobado</v>
+      </c>
+      <c r="C69" t="str">
+        <v>Income</v>
+      </c>
+      <c r="D69" t="str">
+        <v>Revenue - General</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>400.04</v>
+      </c>
+      <c r="B70" t="str">
+        <v>Servicios - Asistencia Tecnica</v>
+      </c>
+      <c r="C70" t="str">
+        <v>Income</v>
+      </c>
+      <c r="D70" t="str">
+        <v>Revenue - General</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>400.05</v>
+      </c>
+      <c r="B71" t="str">
+        <v>Venta - Analsis de Agua</v>
+      </c>
+      <c r="C71" t="str">
+        <v>Income</v>
+      </c>
+      <c r="D71" t="str">
+        <v>Revenue - General</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>400.06</v>
+      </c>
+      <c r="B72" t="str">
+        <v>Venta - Cloro Tabletas</v>
+      </c>
+      <c r="C72" t="str">
+        <v>Income</v>
+      </c>
+      <c r="D72" t="str">
+        <v>Revenue - General</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>400.07</v>
+      </c>
+      <c r="B73" t="str">
+        <v>Venta - Cloro Granulado (en libras)</v>
+      </c>
+      <c r="C73" t="str">
+        <v>Income</v>
+      </c>
+      <c r="D73" t="str">
+        <v>Revenue - General</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>400.08</v>
+      </c>
+      <c r="B74" t="str">
+        <v>Venta - Cloradores</v>
+      </c>
+      <c r="C74" t="str">
+        <v>Income</v>
+      </c>
+      <c r="D74" t="str">
+        <v>Revenue - General</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>400.09</v>
+      </c>
+      <c r="B75" t="str">
+        <v>Venta - Fitros</v>
+      </c>
+      <c r="C75" t="str">
+        <v>Income</v>
+      </c>
+      <c r="D75" t="str">
+        <v>Revenue - General</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>400.1</v>
+      </c>
+      <c r="B76" t="str">
+        <v>Venta - Reactivos</v>
+      </c>
+      <c r="C76" t="str">
+        <v>Income</v>
+      </c>
+      <c r="D76" t="str">
+        <v>Revenue - General</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>400.11</v>
+      </c>
+      <c r="B77" t="str">
+        <v>Venta - Kit Cloro</v>
+      </c>
+      <c r="C77" t="str">
+        <v>Income</v>
+      </c>
+      <c r="D77" t="str">
+        <v>Revenue - General</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>400.12</v>
+      </c>
+      <c r="B78" t="str">
+        <v>Venta - Accesorios y Otras Ingresos</v>
+      </c>
+      <c r="C78" t="str">
+        <v>Income</v>
+      </c>
+      <c r="D78" t="str">
+        <v>Revenue - General</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>400.13</v>
+      </c>
+      <c r="B79" t="str">
+        <v>Fondos p/Interes de Prestamos</v>
+      </c>
+      <c r="C79" t="str">
+        <v>Income</v>
+      </c>
+      <c r="D79" t="str">
+        <v>Revenue - General</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>400.14</v>
+      </c>
+      <c r="B80" t="str">
+        <v>Fondos p/Interes de cuentas Bancarias</v>
+      </c>
+      <c r="C80" t="str">
+        <v>Income</v>
+      </c>
+      <c r="D80" t="str">
+        <v>Revenue - General</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>400.15</v>
+      </c>
+      <c r="B81" t="str">
+        <v>Fondos Misceláneos</v>
+      </c>
+      <c r="C81" t="str">
+        <v>Income</v>
+      </c>
+      <c r="D81" t="str">
+        <v>Revenue - General</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>400.16</v>
+      </c>
+      <c r="B82" t="str">
+        <v>INGRESOS DEL PROGRAMA:Ajuste por mantenimiento y Valor</v>
+      </c>
+      <c r="C82" t="str">
+        <v>Income</v>
+      </c>
+      <c r="D82" t="str">
+        <v>Revenue - General</v>
+      </c>
+      <c r="E82" t="str">
+        <v>Ajuste mantenimiento cuenta de Dólar</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>500</v>
+      </c>
+      <c r="B83" t="str">
+        <v>Cost of Goods Sold</v>
+      </c>
+      <c r="C83" t="str">
+        <v>Cost of sales</v>
+      </c>
+      <c r="D83" t="str">
+        <v>Cost of Sales</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>500.01</v>
+      </c>
+      <c r="B84" t="str">
+        <v>Insumos Analsis de Agua</v>
+      </c>
+      <c r="C84" t="str">
+        <v>Cost of sales</v>
+      </c>
+      <c r="D84" t="str">
+        <v>Cost of Sales</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>500.02</v>
+      </c>
+      <c r="B85" t="str">
+        <v>Insumos Cloro Tabletas</v>
+      </c>
+      <c r="C85" t="str">
+        <v>Cost of sales</v>
+      </c>
+      <c r="D85" t="str">
+        <v>Cost of Sales</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>500.03</v>
+      </c>
+      <c r="B86" t="str">
+        <v>Insumos Cloro Granulado (en libras)</v>
+      </c>
+      <c r="C86" t="str">
+        <v>Cost of sales</v>
+      </c>
+      <c r="D86" t="str">
+        <v>Cost of Sales</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>500.04</v>
+      </c>
+      <c r="B87" t="str">
+        <v>Insumos Cloradores</v>
+      </c>
+      <c r="C87" t="str">
+        <v>Cost of sales</v>
+      </c>
+      <c r="D87" t="str">
+        <v>Cost of Sales</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>500.05</v>
+      </c>
+      <c r="B88" t="str">
+        <v>Insumos Fitros</v>
+      </c>
+      <c r="C88" t="str">
+        <v>Cost of sales</v>
+      </c>
+      <c r="D88" t="str">
+        <v>Cost of Sales</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>500.06</v>
+      </c>
+      <c r="B89" t="str">
+        <v>Insumos Reactivos</v>
+      </c>
+      <c r="C89" t="str">
+        <v>Cost of sales</v>
+      </c>
+      <c r="D89" t="str">
+        <v>Cost of Sales</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>500.07</v>
+      </c>
+      <c r="B90" t="str">
+        <v>Insumos Accesorio y Otros</v>
+      </c>
+      <c r="C90" t="str">
+        <v>Cost of sales</v>
+      </c>
+      <c r="D90" t="str">
+        <v>Cost of Sales</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>500.08</v>
+      </c>
+      <c r="B91" t="str">
+        <v>Insumos Accesorios y Otras</v>
+      </c>
+      <c r="C91" t="str">
+        <v>Cost of sales</v>
+      </c>
+      <c r="D91" t="str">
+        <v>Cost of Sales</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>3003</v>
+      </c>
+      <c r="B92" t="str">
+        <v>Uncategorized Expense(Gastos no categorizados)</v>
+      </c>
+      <c r="C92" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D92" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>3009</v>
+      </c>
+      <c r="B93" t="str">
+        <v>Purchases</v>
+      </c>
+      <c r="C93" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D93" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>3013</v>
+      </c>
+      <c r="B94" t="str">
+        <v>Unapplied Cash Bill Payment Expense</v>
+      </c>
+      <c r="C94" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D94" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>600</v>
+      </c>
+      <c r="B95" t="str">
+        <v>SUELDOS Y SALARIOS</v>
+      </c>
+      <c r="C95" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D95" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>600.01</v>
+      </c>
+      <c r="B96" t="str">
+        <v>Coordinacion</v>
+      </c>
+      <c r="C96" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D96" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>600.02</v>
+      </c>
+      <c r="B97" t="str">
+        <v>Contabilidad/Admin</v>
+      </c>
+      <c r="C97" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D97" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>600.03</v>
+      </c>
+      <c r="B98" t="str">
+        <v>Circuit Riders</v>
+      </c>
+      <c r="C98" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D98" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>600.031</v>
+      </c>
+      <c r="B99" t="str">
+        <v>Tecnicos de Carbono</v>
+      </c>
+      <c r="C99" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D99" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>600.04</v>
+      </c>
+      <c r="B100" t="str">
+        <v>Laboratorio y Salud</v>
+      </c>
+      <c r="C100" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D100" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>600.05</v>
+      </c>
+      <c r="B101" t="str">
+        <v>Honorarios Prof/Contratista</v>
+      </c>
+      <c r="C101" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D101" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102">
+        <v>600.06</v>
+      </c>
+      <c r="B102" t="str">
+        <v>Bonus Empleados</v>
+      </c>
+      <c r="C102" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D102" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103">
+        <v>600.07</v>
+      </c>
+      <c r="B103" t="str">
+        <v>Pago Terceavo Mes</v>
+      </c>
+      <c r="C103" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D103" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104">
+        <v>600.08</v>
+      </c>
+      <c r="B104" t="str">
+        <v>Pago Catorceavo Mes</v>
+      </c>
+      <c r="C104" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D104" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105">
+        <v>600.09</v>
+      </c>
+      <c r="B105" t="str">
+        <v>Cotizacion al I.H.S.S.</v>
+      </c>
+      <c r="C105" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D105" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106">
+        <v>600.1</v>
+      </c>
+      <c r="B106" t="str">
+        <v>Seguro de Vida Empleados</v>
+      </c>
+      <c r="C106" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D106" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107">
+        <v>600.11</v>
+      </c>
+      <c r="B107" t="str">
+        <v>Proyeccion Social</v>
+      </c>
+      <c r="C107" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D107" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108">
+        <v>600.12</v>
+      </c>
+      <c r="B108" t="str">
+        <v>Prestaciones Liquidades</v>
+      </c>
+      <c r="C108" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D108" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109">
+        <v>610</v>
+      </c>
+      <c r="B109" t="str">
+        <v>GASTOS DE PROYECTOS</v>
+      </c>
+      <c r="C109" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D109" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110">
+        <v>610.01</v>
+      </c>
+      <c r="B110" t="str">
+        <v>Gastos para Ejecusion de Proyectos</v>
+      </c>
+      <c r="C110" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D110" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111">
+        <v>610.02</v>
+      </c>
+      <c r="B111" t="str">
+        <v>Programa de Salud e Higiene</v>
+      </c>
+      <c r="C111" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D111" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112">
+        <v>620</v>
+      </c>
+      <c r="B112" t="str">
+        <v>GASTOS DEL OFICINA</v>
+      </c>
+      <c r="C112" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D112" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113">
+        <v>620.01</v>
+      </c>
+      <c r="B113" t="str">
+        <v>Aquiliar de Local</v>
+      </c>
+      <c r="C113" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D113" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114">
+        <v>620.02</v>
+      </c>
+      <c r="B114" t="str">
+        <v>Mantienmento de Equipo de Oficina</v>
+      </c>
+      <c r="C114" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D114" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115">
+        <v>620.03</v>
+      </c>
+      <c r="B115" t="str">
+        <v>Impuestos Sobre la Renta</v>
+      </c>
+      <c r="C115" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D115" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116">
+        <v>620.04</v>
+      </c>
+      <c r="B116" t="str">
+        <v>Papeleria y Utiles de Oficina</v>
+      </c>
+      <c r="C116" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D116" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117">
+        <v>620.05</v>
+      </c>
+      <c r="B117" t="str">
+        <v>Servicios Publicos</v>
+      </c>
+      <c r="C117" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D117" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118">
+        <v>620.06</v>
+      </c>
+      <c r="B118" t="str">
+        <v>Propaganda y Publicidad</v>
+      </c>
+      <c r="C118" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D118" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119">
+        <v>620.07</v>
+      </c>
+      <c r="B119" t="str">
+        <v>Pagina Web</v>
+      </c>
+      <c r="C119" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D119" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120">
+        <v>620.08</v>
+      </c>
+      <c r="B120" t="str">
+        <v>Otros Gastos</v>
+      </c>
+      <c r="C120" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D120" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121">
+        <v>630</v>
+      </c>
+      <c r="B121" t="str">
+        <v>GASTOS DE TRANSPORTE</v>
+      </c>
+      <c r="C121" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D121" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122">
+        <v>630.01</v>
+      </c>
+      <c r="B122" t="str">
+        <v>Gastos por Transporte</v>
+      </c>
+      <c r="C122" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D122" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123">
+        <v>630.02</v>
+      </c>
+      <c r="B123" t="str">
+        <v>Repuestos y Mantienmento de Vehicilos</v>
+      </c>
+      <c r="C123" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D123" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124">
+        <v>630.03</v>
+      </c>
+      <c r="B124" t="str">
+        <v>Gastos de Viajes</v>
+      </c>
+      <c r="C124" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D124" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125">
+        <v>630.04</v>
+      </c>
+      <c r="B125" t="str">
+        <v>Gastos de Capacitiacion</v>
+      </c>
+      <c r="C125" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D125" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126">
+        <v>630.05</v>
+      </c>
+      <c r="B126" t="str">
+        <v>Combustibles y Lubricantes</v>
+      </c>
+      <c r="C126" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D126" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127">
+        <v>630.06</v>
+      </c>
+      <c r="B127" t="str">
+        <v>Matricula de Vehiculos</v>
+      </c>
+      <c r="C127" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D127" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128">
+        <v>630.07</v>
+      </c>
+      <c r="B128" t="str">
+        <v>Gastos de Viaticos</v>
+      </c>
+      <c r="C128" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D128" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+      <c r="E128" t="str">
+        <v>Gastos de viaticos, alimentación, etc.</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129">
+        <v>630.08</v>
+      </c>
+      <c r="B129" t="str">
+        <v>Alquiler de Motocicleta</v>
+      </c>
+      <c r="C129" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D129" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130">
+        <v>640</v>
+      </c>
+      <c r="B130" t="str">
+        <v>GASTOS BANCARIO</v>
+      </c>
+      <c r="C130" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D130" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131">
+        <v>640.01</v>
+      </c>
+      <c r="B131" t="str">
+        <v>Depreciaciones</v>
+      </c>
+      <c r="C131" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D131" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132">
+        <v>640.02</v>
+      </c>
+      <c r="B132" t="str">
+        <v>Cargo por Chequera</v>
+      </c>
+      <c r="C132" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D132" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133">
+        <v>640.03</v>
+      </c>
+      <c r="B133" t="str">
+        <v>Tasa de Seguridad</v>
+      </c>
+      <c r="C133" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D133" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134">
+        <v>640.04</v>
+      </c>
+      <c r="B134" t="str">
+        <v>Comision Bancaria</v>
+      </c>
+      <c r="C134" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D134" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135">
+        <v>640.05</v>
+      </c>
+      <c r="B135" t="str">
+        <v>Perdida por cuentas incobrables</v>
+      </c>
+      <c r="C135" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D135" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136">
+        <v>640.06</v>
+      </c>
+      <c r="B136" t="str">
+        <v>Gasto Diferencial Cambiario</v>
+      </c>
+      <c r="C136" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D136" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+      <c r="E136" t="str">
+        <v>Ajuste Tasa de Cambio</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137">
+        <v>650</v>
+      </c>
+      <c r="B137" t="str">
+        <v>Reservas</v>
+      </c>
+      <c r="C137" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D137" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+      <c r="E137" t="str">
+        <v>Fondos de reservas de años siguientes</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138">
+        <v>650.01</v>
+      </c>
+      <c r="B138" t="str">
+        <v>Reservas:Reservas</v>
+      </c>
+      <c r="C138" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D138" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139">
+        <v>660</v>
+      </c>
+      <c r="B139" t="str">
+        <v>SERVICIO FORESTAL (CUENTA PRINCIPAL)</v>
+      </c>
+      <c r="C139" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D139" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140">
+        <v>660.01</v>
+      </c>
+      <c r="B140" t="str">
+        <v>SERVICIO FORESTAL (CUENTA PRINCIPAL):Servicio Forestal- Equipo</v>
+      </c>
+      <c r="C140" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D140" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141">
+        <v>660.02</v>
+      </c>
+      <c r="B141" t="str">
+        <v>SERVICIO FORESTAL (CUENTA PRINCIPAL):Servicio Forestal- Suministros</v>
+      </c>
+      <c r="C141" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D141" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142">
+        <v>660.03</v>
+      </c>
+      <c r="B142" t="str">
+        <v>SERVICIO FORESTAL (CUENTA PRINCIPAL):Servicio Forestal- Contractual</v>
+      </c>
+      <c r="C142" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D142" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143">
+        <v>660.04</v>
+      </c>
+      <c r="B143" t="str">
+        <v>SERVICIO FORESTAL (CUENTA PRINCIPAL):Servicio Forestal- Otro</v>
+      </c>
+      <c r="C143" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D143" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144">
+        <v>660.05</v>
+      </c>
+      <c r="B144" t="str">
+        <v>SERVICIO FORESTAL (CUENTA PRINCIPAL):Servicio Forestal- Personal</v>
+      </c>
+      <c r="C144" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D144" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145">
+        <v>660.06</v>
+      </c>
+      <c r="B145" t="str">
+        <v>SERVICIO FORESTAL (CUENTA PRINCIPAL):Servicio Forestal- Costos Indirectos</v>
+      </c>
+      <c r="C145" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D145" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146">
+        <v>660.07</v>
+      </c>
+      <c r="B146" t="str">
+        <v>SERVICIO FORESTAL (CUENTA PRINCIPAL):Servicio Forestal- Transporte</v>
+      </c>
+      <c r="C146" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D146" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147">
+        <v>3010</v>
+      </c>
+      <c r="B147" t="str">
+        <v>Other Miscellaneous Expense</v>
+      </c>
+      <c r="C147" t="str">
+        <v>Other Expense</v>
+      </c>
+      <c r="D147" t="str">
+        <v>Other Miscellaneous Expense</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148">
+        <v>3016</v>
+      </c>
+      <c r="B148" t="str">
+        <v>Reconciliation Discrepancies</v>
+      </c>
+      <c r="C148" t="str">
+        <v>Other Expense</v>
+      </c>
+      <c r="D148" t="str">
+        <v>Other Miscellaneous Expense</v>
+      </c>
+    </row>
+  </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:A9"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E148"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/server/data/coa/modifiedCoa.xlsx
+++ b/server/data/coa/modifiedCoa.xlsx
@@ -397,13 +397,1552 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E97"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Account No.</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Account</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Type</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Detail type</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Description</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>2442</v>
+      </c>
+      <c r="B2" t="str">
+        <v>Australia and New Zealand Banking Group - ANZ (AU)</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Cash and cash equivalents</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Cash and cash equivalents</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>2453</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Cash and cash equivalents</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Cash and cash equivalents</v>
+      </c>
+      <c r="D3" t="str">
+        <v>Cash and cash equivalents</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>2454</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Cash and cash equivalents:Cash and cash equivalents</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Cash and cash equivalents</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Cash and cash equivalents</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>2480</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Savings</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Cash and cash equivalents</v>
+      </c>
+      <c r="D5" t="str">
+        <v>Cash and cash equivalents</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>2482</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Perm Staff Leave</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Cash and cash equivalents</v>
+      </c>
+      <c r="D6" t="str">
+        <v>Cash and cash equivalents</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>2483</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Perm Staff Tax</v>
+      </c>
+      <c r="C7" t="str">
+        <v>Cash and cash equivalents</v>
+      </c>
+      <c r="D7" t="str">
+        <v>Cash and cash equivalents</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>2484</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Parramatta Council Bill</v>
+      </c>
+      <c r="C8" t="str">
+        <v>Cash and cash equivalents</v>
+      </c>
+      <c r="D8" t="str">
+        <v>Cash and cash equivalents</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>2485</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Cumberland Councill Bill</v>
+      </c>
+      <c r="C9" t="str">
+        <v>Cash and cash equivalents</v>
+      </c>
+      <c r="D9" t="str">
+        <v>Cash and cash equivalents</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>2486</v>
+      </c>
+      <c r="B10" t="str">
+        <v>petty cash account</v>
+      </c>
+      <c r="C10" t="str">
+        <v>Cash and cash equivalents</v>
+      </c>
+      <c r="D10" t="str">
+        <v>Cash and cash equivalents</v>
+      </c>
+      <c r="E10" t="str">
+        <v>Petty Cash</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>2487</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Personal Savings Account</v>
+      </c>
+      <c r="C11" t="str">
+        <v>Cash and cash equivalents</v>
+      </c>
+      <c r="D11" t="str">
+        <v>Cash and cash equivalents</v>
+      </c>
+      <c r="E11" t="str">
+        <v>Personal Savings Account</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>2488</v>
+      </c>
+      <c r="B12" t="str">
+        <v>KIA Cerrato expenses</v>
+      </c>
+      <c r="C12" t="str">
+        <v>Cash and cash equivalents</v>
+      </c>
+      <c r="D12" t="str">
+        <v>Cash and cash equivalents</v>
+      </c>
+      <c r="E12" t="str">
+        <v>KIA Cerrato expenses</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>2489</v>
+      </c>
+      <c r="B13" t="str">
+        <v>BSS Savings Account</v>
+      </c>
+      <c r="C13" t="str">
+        <v>Cash and cash equivalents</v>
+      </c>
+      <c r="D13" t="str">
+        <v>Cash and cash equivalents</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>2490</v>
+      </c>
+      <c r="B14" t="str">
+        <v>precision super payments</v>
+      </c>
+      <c r="C14" t="str">
+        <v>Cash and cash equivalents</v>
+      </c>
+      <c r="D14" t="str">
+        <v>Cash and cash equivalents</v>
+      </c>
+      <c r="E14" t="str">
+        <v>staff super payments</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>2492</v>
+      </c>
+      <c r="B15" t="str">
+        <v>Learning &amp; Development</v>
+      </c>
+      <c r="C15" t="str">
+        <v>Cash and cash equivalents</v>
+      </c>
+      <c r="D15" t="str">
+        <v>Cash and cash equivalents</v>
+      </c>
+      <c r="E15" t="str">
+        <v>Learning &amp; Development</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>2493</v>
+      </c>
+      <c r="B16" t="str">
+        <v>Saengdara SMSF</v>
+      </c>
+      <c r="C16" t="str">
+        <v>Cash and cash equivalents</v>
+      </c>
+      <c r="D16" t="str">
+        <v>Cash and cash equivalents</v>
+      </c>
+      <c r="E16" t="str">
+        <v>Saengdara SMSF</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>2457</v>
+      </c>
+      <c r="B17" t="str">
+        <v>Accounts Receivable (A/R)</v>
+      </c>
+      <c r="C17" t="str">
+        <v>Accounts receivable (A/R)</v>
+      </c>
+      <c r="D17" t="str">
+        <v>Accounts receivable (A/R)</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>2403</v>
+      </c>
+      <c r="B18" t="str">
+        <v>Uncategorised Asset</v>
+      </c>
+      <c r="C18" t="str">
+        <v>Current assets</v>
+      </c>
+      <c r="D18" t="str">
+        <v>Other current assets</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>2428</v>
+      </c>
+      <c r="B19" t="str">
+        <v>Undeposited funds</v>
+      </c>
+      <c r="C19" t="str">
+        <v>Current assets</v>
+      </c>
+      <c r="D19" t="str">
+        <v>Other current assets</v>
+      </c>
+      <c r="E19" t="str">
+        <v>Money from the business not yet deposited into a business bank account</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>2440</v>
+      </c>
+      <c r="B20" t="str">
+        <v>Inventory</v>
+      </c>
+      <c r="C20" t="str">
+        <v>Current assets</v>
+      </c>
+      <c r="D20" t="str">
+        <v>Other current assets</v>
+      </c>
+      <c r="E20" t="str">
+        <v>Inventory</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>2451</v>
+      </c>
+      <c r="B21" t="str">
+        <v>Inventory Asset</v>
+      </c>
+      <c r="C21" t="str">
+        <v>Current assets</v>
+      </c>
+      <c r="D21" t="str">
+        <v>Other current assets</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>2429</v>
+      </c>
+      <c r="B22" t="str">
+        <v>Motor vehicles at cost</v>
+      </c>
+      <c r="C22" t="str">
+        <v>Fixed assets</v>
+      </c>
+      <c r="D22" t="str">
+        <v>Other fixed assets</v>
+      </c>
+      <c r="E22" t="str">
+        <v>Cost of purchasing or leasing motor vehicles for business purposes</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>2430</v>
+      </c>
+      <c r="B23" t="str">
+        <v>Office furniture and equipment at cost</v>
+      </c>
+      <c r="C23" t="str">
+        <v>Fixed assets</v>
+      </c>
+      <c r="D23" t="str">
+        <v>Other fixed assets</v>
+      </c>
+      <c r="E23" t="str">
+        <v>Cost of buying or leasing furniture and equipment</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>2455</v>
+      </c>
+      <c r="B24" t="str">
+        <v>Accounts Payable (A/P)</v>
+      </c>
+      <c r="C24" t="str">
+        <v>Accounts payable (A/P)</v>
+      </c>
+      <c r="D24" t="str">
+        <v>Accounts Payable (A/P)</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>2476</v>
+      </c>
+      <c r="B25" t="str">
+        <v>Workwear/Uniform</v>
+      </c>
+      <c r="C25" t="str">
+        <v>Credit card</v>
+      </c>
+      <c r="D25" t="str">
+        <v>Credit Card</v>
+      </c>
+      <c r="E25" t="str">
+        <v>Workwear/Uniform</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>2477</v>
+      </c>
+      <c r="B26" t="str">
+        <v>Car Expense - VW</v>
+      </c>
+      <c r="C26" t="str">
+        <v>Credit card</v>
+      </c>
+      <c r="D26" t="str">
+        <v>Credit Card</v>
+      </c>
+      <c r="E26" t="str">
+        <v>Car Expense - VW</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>2478</v>
+      </c>
+      <c r="B27" t="str">
+        <v>Credit Card Bankwest</v>
+      </c>
+      <c r="C27" t="str">
+        <v>Credit card</v>
+      </c>
+      <c r="D27" t="str">
+        <v>Credit Card</v>
+      </c>
+      <c r="E27" t="str">
+        <v>Expenses</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>2479</v>
+      </c>
+      <c r="B28" t="str">
+        <v>ANZ Credit Card</v>
+      </c>
+      <c r="C28" t="str">
+        <v>Credit card</v>
+      </c>
+      <c r="D28" t="str">
+        <v>Credit Card</v>
+      </c>
+      <c r="E28" t="str">
+        <v>Expenses</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>2481</v>
+      </c>
+      <c r="B29" t="str">
+        <v>Citibank Credit Card</v>
+      </c>
+      <c r="C29" t="str">
+        <v>Credit card</v>
+      </c>
+      <c r="D29" t="str">
+        <v>Credit Card</v>
+      </c>
+      <c r="E29" t="str">
+        <v>Citibank Credit Card</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>2432</v>
+      </c>
+      <c r="B30" t="str">
+        <v>Payroll clearing</v>
+      </c>
+      <c r="C30" t="str">
+        <v>Current liabilities</v>
+      </c>
+      <c r="D30" t="str">
+        <v>Other current liabilities</v>
+      </c>
+      <c r="E30" t="str">
+        <v>An account used to deposit, record and monitor payrolls. No funds remain once all cheques clear</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>2433</v>
+      </c>
+      <c r="B31" t="str">
+        <v>Superannuation - staff</v>
+      </c>
+      <c r="C31" t="str">
+        <v>Current liabilities</v>
+      </c>
+      <c r="D31" t="str">
+        <v>Other current liabilities</v>
+      </c>
+      <c r="E31" t="str">
+        <v>Superannuation expenses</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>2436</v>
+      </c>
+      <c r="B32" t="str">
+        <v>Superannuation payable</v>
+      </c>
+      <c r="C32" t="str">
+        <v>Current liabilities</v>
+      </c>
+      <c r="D32" t="str">
+        <v>Other current liabilities</v>
+      </c>
+      <c r="E32" t="str">
+        <v>The amount of superannuation to be paid business to the superannuation fund(s) of employees</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>2437</v>
+      </c>
+      <c r="B33" t="str">
+        <v>PAYG instalments payable</v>
+      </c>
+      <c r="C33" t="str">
+        <v>Current liabilities</v>
+      </c>
+      <c r="D33" t="str">
+        <v>Other current liabilities</v>
+      </c>
+      <c r="E33" t="str">
+        <v>Pay-As-You-Go instalments paid regularly to the ATO</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>2446</v>
+      </c>
+      <c r="B34" t="str">
+        <v>PAYG Liability</v>
+      </c>
+      <c r="C34" t="str">
+        <v>Current liabilities</v>
+      </c>
+      <c r="D34" t="str">
+        <v>Other current liabilities</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>2448</v>
+      </c>
+      <c r="B35" t="str">
+        <v>Default Liability</v>
+      </c>
+      <c r="C35" t="str">
+        <v>Current liabilities</v>
+      </c>
+      <c r="D35" t="str">
+        <v>Other current liabilities</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>2461</v>
+      </c>
+      <c r="B36" t="str">
+        <v>ATO Clearing Account</v>
+      </c>
+      <c r="C36" t="str">
+        <v>Current liabilities</v>
+      </c>
+      <c r="D36" t="str">
+        <v>Other current liabilities</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>2463</v>
+      </c>
+      <c r="B37" t="str">
+        <v>GST Liabilities Payable</v>
+      </c>
+      <c r="C37" t="str">
+        <v>Current liabilities</v>
+      </c>
+      <c r="D37" t="str">
+        <v>Other current liabilities</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>2465</v>
+      </c>
+      <c r="B38" t="str">
+        <v>FBT Liabilities</v>
+      </c>
+      <c r="C38" t="str">
+        <v>Current liabilities</v>
+      </c>
+      <c r="D38" t="str">
+        <v>Other current liabilities</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>2466</v>
+      </c>
+      <c r="B39" t="str">
+        <v>PAYG Instalment Liabilities</v>
+      </c>
+      <c r="C39" t="str">
+        <v>Current liabilities</v>
+      </c>
+      <c r="D39" t="str">
+        <v>Other current liabilities</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>2467</v>
+      </c>
+      <c r="B40" t="str">
+        <v>Luxury Car Tax Liabilities</v>
+      </c>
+      <c r="C40" t="str">
+        <v>Current liabilities</v>
+      </c>
+      <c r="D40" t="str">
+        <v>Other current liabilities</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>2468</v>
+      </c>
+      <c r="B41" t="str">
+        <v>WET Liabilities</v>
+      </c>
+      <c r="C41" t="str">
+        <v>Current liabilities</v>
+      </c>
+      <c r="D41" t="str">
+        <v>Other current liabilities</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>2469</v>
+      </c>
+      <c r="B42" t="str">
+        <v>PAYG Withholdings Payable</v>
+      </c>
+      <c r="C42" t="str">
+        <v>Current liabilities</v>
+      </c>
+      <c r="D42" t="str">
+        <v>Other current liabilities</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>2431</v>
+      </c>
+      <c r="B43" t="str">
+        <v>Loan</v>
+      </c>
+      <c r="C43" t="str">
+        <v>Non-current liabilities</v>
+      </c>
+      <c r="D43" t="str">
+        <v>Other non-current liabilities</v>
+      </c>
+      <c r="E43" t="str">
+        <v>Money borrowed for business purposes</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>2491</v>
+      </c>
+      <c r="B44" t="str">
+        <v>Directors Loan</v>
+      </c>
+      <c r="C44" t="str">
+        <v>Non-current liabilities</v>
+      </c>
+      <c r="D44" t="str">
+        <v>Other non-current liabilities</v>
+      </c>
+      <c r="E44" t="str">
+        <v>Directors Loan</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>2404</v>
+      </c>
+      <c r="B45" t="str">
+        <v>Retained Earnings</v>
+      </c>
+      <c r="C45" t="str">
+        <v>Owner's equity</v>
+      </c>
+      <c r="D45" t="str">
+        <v>Owner's Equity</v>
+      </c>
+      <c r="E45" t="str">
+        <v>Net earnings not paid out as dividends, but retained by the company to be reinvested</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>2425</v>
+      </c>
+      <c r="B46" t="str">
+        <v>Opening balance equity</v>
+      </c>
+      <c r="C46" t="str">
+        <v>Owner's equity</v>
+      </c>
+      <c r="D46" t="str">
+        <v>Owner's Equity</v>
+      </c>
+      <c r="E46" t="str">
+        <v>Offsetting entry used when entering account balances in QuickBooks Online</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>2426</v>
+      </c>
+      <c r="B47" t="str">
+        <v>Owners drawings</v>
+      </c>
+      <c r="C47" t="str">
+        <v>Owner's equity</v>
+      </c>
+      <c r="D47" t="str">
+        <v>Owner's Equity</v>
+      </c>
+      <c r="E47" t="str">
+        <v>Withdrawals from a company account to pay an owner</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>2401</v>
+      </c>
+      <c r="B48" t="str">
+        <v>Uncategorised Income</v>
+      </c>
+      <c r="C48" t="str">
+        <v>Income</v>
+      </c>
+      <c r="D48" t="str">
+        <v>Revenue - General</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>2441</v>
+      </c>
+      <c r="B49" t="str">
+        <v>Sales</v>
+      </c>
+      <c r="C49" t="str">
+        <v>Income</v>
+      </c>
+      <c r="D49" t="str">
+        <v>Revenue - General</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>2443</v>
+      </c>
+      <c r="B50" t="str">
+        <v>Billable Expense Income</v>
+      </c>
+      <c r="C50" t="str">
+        <v>Income</v>
+      </c>
+      <c r="D50" t="str">
+        <v>Revenue - General</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>2449</v>
+      </c>
+      <c r="B51" t="str">
+        <v>Sales of Product Income</v>
+      </c>
+      <c r="C51" t="str">
+        <v>Income</v>
+      </c>
+      <c r="D51" t="str">
+        <v>Revenue - General</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>2458</v>
+      </c>
+      <c r="B52" t="str">
+        <v>Unapplied Cash Payment Income</v>
+      </c>
+      <c r="C52" t="str">
+        <v>Income</v>
+      </c>
+      <c r="D52" t="str">
+        <v>Revenue - General</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>2438</v>
+      </c>
+      <c r="B53" t="str">
+        <v>Freight &amp; Delivery - COS</v>
+      </c>
+      <c r="C53" t="str">
+        <v>Cost of sales</v>
+      </c>
+      <c r="D53" t="str">
+        <v>Cost of Sales</v>
+      </c>
+      <c r="E53" t="str">
+        <v>Freight &amp; Delivery - COS</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>2450</v>
+      </c>
+      <c r="B54" t="str">
+        <v>Cost of sales</v>
+      </c>
+      <c r="C54" t="str">
+        <v>Cost of sales</v>
+      </c>
+      <c r="D54" t="str">
+        <v>Cost of Sales</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>2402</v>
+      </c>
+      <c r="B55" t="str">
+        <v>Uncategorised Expense</v>
+      </c>
+      <c r="C55" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D55" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>2405</v>
+      </c>
+      <c r="B56" t="str">
+        <v>Accounting and bookkeeping</v>
+      </c>
+      <c r="C56" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D56" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+      <c r="E56" t="str">
+        <v>Professional fees charged to your business by an accountant or bookkeeper</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>2406</v>
+      </c>
+      <c r="B57" t="str">
+        <v>Advertising and marketing</v>
+      </c>
+      <c r="C57" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D57" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+      <c r="E57" t="str">
+        <v>Fees and charges incurred by your business for advertising the goods and services it sells</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>2407</v>
+      </c>
+      <c r="B58" t="str">
+        <v>Bank charges and fees</v>
+      </c>
+      <c r="C58" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D58" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+      <c r="E58" t="str">
+        <v>Fees charged by your bank for providing its services to your business</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>2408</v>
+      </c>
+      <c r="B59" t="str">
+        <v>Gifts and donations</v>
+      </c>
+      <c r="C59" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D59" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+      <c r="E59" t="str">
+        <v>Money and gifts donated to charity</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>2409</v>
+      </c>
+      <c r="B60" t="str">
+        <v>Subscriptions</v>
+      </c>
+      <c r="C60" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D60" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+      <c r="E60" t="str">
+        <v>Subscriptions to publications, professional memberships or products such as cloud software</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>2410</v>
+      </c>
+      <c r="B61" t="str">
+        <v>Meals and entertainment</v>
+      </c>
+      <c r="C61" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D61" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+      <c r="E61" t="str">
+        <v>Expenses incurred when traveling for business purposes or entertaining a business client</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>2411</v>
+      </c>
+      <c r="B62" t="str">
+        <v>Fuel &amp; oils</v>
+      </c>
+      <c r="C62" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D62" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+      <c r="E62" t="str">
+        <v>Cost of fuels and oils required for operating your business vehicles</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>2412</v>
+      </c>
+      <c r="B63" t="str">
+        <v>Registration and insurance</v>
+      </c>
+      <c r="C63" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D63" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+      <c r="E63" t="str">
+        <v>Registration and insurance costs for company vehicles</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>2413</v>
+      </c>
+      <c r="B64" t="str">
+        <v>Motor vehicle expenses</v>
+      </c>
+      <c r="C64" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D64" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+      <c r="E64" t="str">
+        <v>Expenses incurred running company vehicles</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>2414</v>
+      </c>
+      <c r="B65" t="str">
+        <v>Insurance</v>
+      </c>
+      <c r="C65" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D65" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+      <c r="E65" t="str">
+        <v>Expenses incurred to insure business assets</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>2415</v>
+      </c>
+      <c r="B66" t="str">
+        <v>Office expenses</v>
+      </c>
+      <c r="C66" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D66" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+      <c r="E66" t="str">
+        <v>Costs to maintain office space and equipment</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>2416</v>
+      </c>
+      <c r="B67" t="str">
+        <v>Postage &amp; shipping</v>
+      </c>
+      <c r="C67" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D67" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+      <c r="E67" t="str">
+        <v>Cost of postage and shipping related to your business operations</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>2417</v>
+      </c>
+      <c r="B68" t="str">
+        <v>Printing, stationery &amp; supplies</v>
+      </c>
+      <c r="C68" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D68" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+      <c r="E68" t="str">
+        <v>Cost of printing, stationery and supplies for office use</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>2418</v>
+      </c>
+      <c r="B69" t="str">
+        <v>Repairs and maintenance</v>
+      </c>
+      <c r="C69" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D69" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+      <c r="E69" t="str">
+        <v>Expenses incurred repairing or maintaining business assets e.g. office equipment</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>2419</v>
+      </c>
+      <c r="B70" t="str">
+        <v>Staff amenities</v>
+      </c>
+      <c r="C70" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D70" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+      <c r="E70" t="str">
+        <v>Staff refreshments e.g. tea, coffee and biscults</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>2420</v>
+      </c>
+      <c r="B71" t="str">
+        <v>Telephone &amp; internet expenses</v>
+      </c>
+      <c r="C71" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D71" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+      <c r="E71" t="str">
+        <v>Phone calls and internet expenses associated with operating your business</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>2421</v>
+      </c>
+      <c r="B72" t="str">
+        <v>Travel expenses</v>
+      </c>
+      <c r="C72" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D72" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+      <c r="E72" t="str">
+        <v>Expenses incurred when travelling for business</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>2422</v>
+      </c>
+      <c r="B73" t="str">
+        <v>Gas and electricity</v>
+      </c>
+      <c r="C73" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D73" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+      <c r="E73" t="str">
+        <v>Expenses incurred for utilities such as lighting, powering or heating business premises</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>2424</v>
+      </c>
+      <c r="B74" t="str">
+        <v>Interest expense</v>
+      </c>
+      <c r="C74" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D74" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+      <c r="E74" t="str">
+        <v>Interest payable on borrowings</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>2427</v>
+      </c>
+      <c r="B75" t="str">
+        <v>Contractor Expenses (non salary)</v>
+      </c>
+      <c r="C75" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D75" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+      <c r="E75" t="str">
+        <v>Monies paid to a contractor (not an employee) for work they've completed</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>2434</v>
+      </c>
+      <c r="B76" t="str">
+        <v>Salary and wages - staff</v>
+      </c>
+      <c r="C76" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D76" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+      <c r="E76" t="str">
+        <v>Salaries and wages paid to employees</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>2435</v>
+      </c>
+      <c r="B77" t="str">
+        <v>Workcover expenses</v>
+      </c>
+      <c r="C77" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D77" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+      <c r="E77" t="str">
+        <v>Workcover is a compulsory and protects employees if injured on the job</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>2439</v>
+      </c>
+      <c r="B78" t="str">
+        <v>Shipping, Freight, and Delivery Postage &amp; Handling</v>
+      </c>
+      <c r="C78" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D78" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+      <c r="E78" t="str">
+        <v>Shipping, Freight, and Delivery Postage &amp; Handling</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>2444</v>
+      </c>
+      <c r="B79" t="str">
+        <v>Wages Expense</v>
+      </c>
+      <c r="C79" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D79" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+      <c r="E79" t="str">
+        <v>Default account for recorded wages and salaries expenses</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>2447</v>
+      </c>
+      <c r="B80" t="str">
+        <v>Superannuation Expense</v>
+      </c>
+      <c r="C80" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D80" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>2452</v>
+      </c>
+      <c r="B81" t="str">
+        <v>Client Gift</v>
+      </c>
+      <c r="C81" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D81" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+      <c r="E81" t="str">
+        <v>Client Birthday</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>2456</v>
+      </c>
+      <c r="B82" t="str">
+        <v>Unapplied Cash Bill Payment Expense</v>
+      </c>
+      <c r="C82" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D82" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>2459</v>
+      </c>
+      <c r="B83" t="str">
+        <v>Car</v>
+      </c>
+      <c r="C83" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D83" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+      <c r="E83" t="str">
+        <v>Insurance</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>2464</v>
+      </c>
+      <c r="B84" t="str">
+        <v>BAS Expense</v>
+      </c>
+      <c r="C84" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D84" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>2470</v>
+      </c>
+      <c r="B85" t="str">
+        <v>Workers Comp icare</v>
+      </c>
+      <c r="C85" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D85" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>2471</v>
+      </c>
+      <c r="B86" t="str">
+        <v>Car Insurance</v>
+      </c>
+      <c r="C86" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D86" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+      <c r="E86" t="str">
+        <v>Car Insurance NRMA</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>2472</v>
+      </c>
+      <c r="B87" t="str">
+        <v>Insurance Income Protection</v>
+      </c>
+      <c r="C87" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D87" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+      <c r="E87" t="str">
+        <v>Insurance Income Protection</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>2473</v>
+      </c>
+      <c r="B88" t="str">
+        <v>Car Insurance Honda</v>
+      </c>
+      <c r="C88" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D88" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+      <c r="E88" t="str">
+        <v>Car Insurance Honda NRMA</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>2474</v>
+      </c>
+      <c r="B89" t="str">
+        <v>NDIS Audit</v>
+      </c>
+      <c r="C89" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D89" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+      <c r="E89" t="str">
+        <v>NDIS Registration Audit</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>2475</v>
+      </c>
+      <c r="B90" t="str">
+        <v>DJ Expenses</v>
+      </c>
+      <c r="C90" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D90" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+      <c r="E90" t="str">
+        <v>DJ Equipment</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>2494</v>
+      </c>
+      <c r="B91" t="str">
+        <v>Admin Fee</v>
+      </c>
+      <c r="C91" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D91" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+      <c r="E91" t="str">
+        <v>Admin Fee</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>2495</v>
+      </c>
+      <c r="B92" t="str">
+        <v>Purchases</v>
+      </c>
+      <c r="C92" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D92" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>2496</v>
+      </c>
+      <c r="B93" t="str">
+        <v>Bad Debt</v>
+      </c>
+      <c r="C93" t="str">
+        <v>Expenses</v>
+      </c>
+      <c r="D93" t="str">
+        <v>Office/General Administrative Expenses</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>2423</v>
+      </c>
+      <c r="B94" t="str">
+        <v>Interest income</v>
+      </c>
+      <c r="C94" t="str">
+        <v>Other income</v>
+      </c>
+      <c r="D94" t="str">
+        <v>Other Miscellaneous Income</v>
+      </c>
+      <c r="E94" t="str">
+        <v>Interest earned from savings accounts, deposits or other investments</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>2445</v>
+      </c>
+      <c r="B95" t="str">
+        <v>Employee Expenses</v>
+      </c>
+      <c r="C95" t="str">
+        <v>Other expense</v>
+      </c>
+      <c r="D95" t="str">
+        <v>Other Expense</v>
+      </c>
+      <c r="E95" t="str">
+        <v>Default account for recorded employee expenses</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>2460</v>
+      </c>
+      <c r="B96" t="str">
+        <v>Reconciliation Discrepancies</v>
+      </c>
+      <c r="C96" t="str">
+        <v>Other expense</v>
+      </c>
+      <c r="D96" t="str">
+        <v>Other Expense</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>2462</v>
+      </c>
+      <c r="B97" t="str">
+        <v>BAS Roundoff Gain or Loss</v>
+      </c>
+      <c r="C97" t="str">
+        <v>Other expense</v>
+      </c>
+      <c r="D97" t="str">
+        <v>Other Expense</v>
+      </c>
+    </row>
+  </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E97"/>
   </ignoredErrors>
 </worksheet>
 </file>